--- a/greta_summary.xlsx
+++ b/greta_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="33">
   <si>
     <t>height</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -2207,16 +2207,16 @@
         <v>23</v>
       </c>
       <c r="C87">
-        <v>2180.162283360958</v>
+        <v>2275.731623768806</v>
       </c>
       <c r="D87">
-        <v>1780.868467748165</v>
+        <v>1416.522144913673</v>
       </c>
       <c r="E87">
-        <v>1621.067988872528</v>
+        <v>916.4812488555908</v>
       </c>
       <c r="F87">
-        <v>1481.775184869766</v>
+        <v>500.1176800131798</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2227,16 +2227,16 @@
         <v>23</v>
       </c>
       <c r="C88">
-        <v>2273.714855670929</v>
+        <v>2387.894743323326</v>
       </c>
       <c r="D88">
-        <v>1874.220068156719</v>
+        <v>1509.775882363319</v>
       </c>
       <c r="E88">
-        <v>1718.299560427666</v>
+        <v>989.4372624754906</v>
       </c>
       <c r="F88">
-        <v>1571.337879478931</v>
+        <v>548.6938955187798</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2247,16 +2247,16 @@
         <v>23</v>
       </c>
       <c r="C89">
-        <v>2353.032376468182</v>
+        <v>2494.119023442268</v>
       </c>
       <c r="D89">
-        <v>1962.385704755783</v>
+        <v>1597.215562164783</v>
       </c>
       <c r="E89">
-        <v>1804.07544618845</v>
+        <v>1059.242387652397</v>
       </c>
       <c r="F89">
-        <v>1652.03608995676</v>
+        <v>598.033249437809</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2267,16 +2267,16 @@
         <v>23</v>
       </c>
       <c r="C90">
-        <v>2431.7321844697</v>
+        <v>2591.285203576088</v>
       </c>
       <c r="D90">
-        <v>2041.219287633896</v>
+        <v>1682.66519588232</v>
       </c>
       <c r="E90">
-        <v>1883.586232066154</v>
+        <v>1124.612134039402</v>
       </c>
       <c r="F90">
-        <v>1730.918816506863</v>
+        <v>642.4829118847847</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2287,16 +2287,16 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <v>2513.148107886314</v>
+        <v>2682.422887325287</v>
       </c>
       <c r="D91">
-        <v>2114.94973295927</v>
+        <v>1761.300552129745</v>
       </c>
       <c r="E91">
-        <v>1955.603492319584</v>
+        <v>1189.397022008896</v>
       </c>
       <c r="F91">
-        <v>1800.720677375793</v>
+        <v>687.306588947773</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2307,16 +2307,16 @@
         <v>24</v>
       </c>
       <c r="C92">
-        <v>2275.731623768806</v>
+        <v>2553.067083179951</v>
       </c>
       <c r="D92">
-        <v>1416.522144913673</v>
+        <v>2267.210143446922</v>
       </c>
       <c r="E92">
-        <v>916.4812488555908</v>
+        <v>2109.120178878307</v>
       </c>
       <c r="F92">
-        <v>500.1176800131798</v>
+        <v>1923.253001928329</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2327,16 +2327,16 @@
         <v>24</v>
       </c>
       <c r="C93">
-        <v>2387.894743323326</v>
+        <v>2717.374789535999</v>
       </c>
       <c r="D93">
-        <v>1509.775882363319</v>
+        <v>2420.792571425438</v>
       </c>
       <c r="E93">
-        <v>989.4372624754906</v>
+        <v>2252.09932333231</v>
       </c>
       <c r="F93">
-        <v>548.6938955187798</v>
+        <v>2059.990745961666</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2347,16 +2347,16 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <v>2494.119023442268</v>
+        <v>2868.647428870201</v>
       </c>
       <c r="D94">
-        <v>1597.215562164783</v>
+        <v>2557.845230281353</v>
       </c>
       <c r="E94">
-        <v>1059.242387652397</v>
+        <v>2385.250291764736</v>
       </c>
       <c r="F94">
-        <v>598.033249437809</v>
+        <v>2187.971548318863</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2367,16 +2367,16 @@
         <v>24</v>
       </c>
       <c r="C95">
-        <v>2591.285203576088</v>
+        <v>3011.605755865574</v>
       </c>
       <c r="D95">
-        <v>1682.66519588232</v>
+        <v>2690.372838377953</v>
       </c>
       <c r="E95">
-        <v>1124.612134039402</v>
+        <v>2511.807695627213</v>
       </c>
       <c r="F95">
-        <v>642.4829118847847</v>
+        <v>2310.848719894886</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2387,16 +2387,16 @@
         <v>24</v>
       </c>
       <c r="C96">
-        <v>2682.422887325287</v>
+        <v>3143.178159475327</v>
       </c>
       <c r="D96">
-        <v>1761.300552129745</v>
+        <v>2815.456739008427</v>
       </c>
       <c r="E96">
-        <v>1189.397022008896</v>
+        <v>2631.745733737946</v>
       </c>
       <c r="F96">
-        <v>687.306588947773</v>
+        <v>2423.755839943886</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2407,16 +2407,16 @@
         <v>25</v>
       </c>
       <c r="C97">
-        <v>2553.067083179951</v>
+        <v>2002.66046667099</v>
       </c>
       <c r="D97">
-        <v>2267.210143446922</v>
+        <v>1522.391327857971</v>
       </c>
       <c r="E97">
-        <v>2109.120178878307</v>
+        <v>1205.881502747536</v>
       </c>
       <c r="F97">
-        <v>1923.253001928329</v>
+        <v>784.3784799575806</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2427,16 +2427,16 @@
         <v>25</v>
       </c>
       <c r="C98">
-        <v>2717.374789535999</v>
+        <v>2155.164343476295</v>
       </c>
       <c r="D98">
-        <v>2420.792571425438</v>
+        <v>1644.396299362183</v>
       </c>
       <c r="E98">
-        <v>2252.09932333231</v>
+        <v>1306.665119707584</v>
       </c>
       <c r="F98">
-        <v>2059.990745961666</v>
+        <v>857.9566776156425</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2447,16 +2447,16 @@
         <v>25</v>
       </c>
       <c r="C99">
-        <v>2868.647428870201</v>
+        <v>2293.333432435989</v>
       </c>
       <c r="D99">
-        <v>2557.845230281353</v>
+        <v>1756.850124239922</v>
       </c>
       <c r="E99">
-        <v>2385.250291764736</v>
+        <v>1405.096832871437</v>
       </c>
       <c r="F99">
-        <v>2187.971548318863</v>
+        <v>929.559429705143</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2467,16 +2467,16 @@
         <v>25</v>
       </c>
       <c r="C100">
-        <v>3011.605755865574</v>
+        <v>2426.06011068821</v>
       </c>
       <c r="D100">
-        <v>2690.372838377953</v>
+        <v>1864.987583935261</v>
       </c>
       <c r="E100">
-        <v>2511.807695627213</v>
+        <v>1496.18900758028</v>
       </c>
       <c r="F100">
-        <v>2310.848719894886</v>
+        <v>998.2617601156235</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2487,16 +2487,16 @@
         <v>25</v>
       </c>
       <c r="C101">
-        <v>3143.178159475327</v>
+        <v>2547.674983680248</v>
       </c>
       <c r="D101">
-        <v>2815.456739008427</v>
+        <v>1971.322158753872</v>
       </c>
       <c r="E101">
-        <v>2631.745733737946</v>
+        <v>1584.029371201992</v>
       </c>
       <c r="F101">
-        <v>2423.755839943886</v>
+        <v>1064.38362967968</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2507,16 +2507,16 @@
         <v>26</v>
       </c>
       <c r="C102">
-        <v>2002.66046667099</v>
+        <v>1305.225185334682</v>
       </c>
       <c r="D102">
-        <v>1522.391327857971</v>
+        <v>1006.473532557487</v>
       </c>
       <c r="E102">
-        <v>1205.881502747536</v>
+        <v>788.1479432582855</v>
       </c>
       <c r="F102">
-        <v>784.3784799575806</v>
+        <v>468.8485525250435</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2527,16 +2527,16 @@
         <v>26</v>
       </c>
       <c r="C103">
-        <v>2155.164343476295</v>
+        <v>1405.687756836414</v>
       </c>
       <c r="D103">
-        <v>1644.396299362183</v>
+        <v>1089.780430078506</v>
       </c>
       <c r="E103">
-        <v>1306.665119707584</v>
+        <v>859.0778263807297</v>
       </c>
       <c r="F103">
-        <v>857.9566776156425</v>
+        <v>515.3416250944138</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2547,16 +2547,16 @@
         <v>26</v>
       </c>
       <c r="C104">
-        <v>2293.333432435989</v>
+        <v>1497.511786818504</v>
       </c>
       <c r="D104">
-        <v>1756.850124239922</v>
+        <v>1168.922099471092</v>
       </c>
       <c r="E104">
-        <v>1405.096832871437</v>
+        <v>922.6750860214233</v>
       </c>
       <c r="F104">
-        <v>929.559429705143</v>
+        <v>560.5589485168457</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2567,16 +2567,16 @@
         <v>26</v>
       </c>
       <c r="C105">
-        <v>2426.06011068821</v>
+        <v>1589.794990897179</v>
       </c>
       <c r="D105">
-        <v>1864.987583935261</v>
+        <v>1244.538159966469</v>
       </c>
       <c r="E105">
-        <v>1496.18900758028</v>
+        <v>985.1509069800377</v>
       </c>
       <c r="F105">
-        <v>998.2617601156235</v>
+        <v>604.4192942976952</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2587,16 +2587,16 @@
         <v>26</v>
       </c>
       <c r="C106">
-        <v>2547.674983680248</v>
+        <v>1671.550665616989</v>
       </c>
       <c r="D106">
-        <v>1971.322158753872</v>
+        <v>1313.856243729591</v>
       </c>
       <c r="E106">
-        <v>1584.029371201992</v>
+        <v>1048.017984867096</v>
       </c>
       <c r="F106">
-        <v>1064.38362967968</v>
+        <v>646.8915796279907</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2607,16 +2607,16 @@
         <v>27</v>
       </c>
       <c r="C107">
-        <v>1305.225185334682</v>
+        <v>1861.892135977745</v>
       </c>
       <c r="D107">
-        <v>1006.473532557487</v>
+        <v>1341.936807453632</v>
       </c>
       <c r="E107">
-        <v>788.1479432582855</v>
+        <v>815.067846596241</v>
       </c>
       <c r="F107">
-        <v>468.8485525250435</v>
+        <v>429.3375449180603</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2627,16 +2627,16 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <v>1405.687756836414</v>
+        <v>1991.727169930935</v>
       </c>
       <c r="D108">
-        <v>1089.780430078506</v>
+        <v>1449.705048859119</v>
       </c>
       <c r="E108">
-        <v>859.0778263807297</v>
+        <v>888.5665268301964</v>
       </c>
       <c r="F108">
-        <v>515.3416250944138</v>
+        <v>475.3643891215324</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2647,16 +2647,16 @@
         <v>27</v>
       </c>
       <c r="C109">
-        <v>1497.511786818504</v>
+        <v>2106.105921328068</v>
       </c>
       <c r="D109">
-        <v>1168.922099471092</v>
+        <v>1548.795731246471</v>
       </c>
       <c r="E109">
-        <v>922.6750860214233</v>
+        <v>959.5753737092018</v>
       </c>
       <c r="F109">
-        <v>560.5589485168457</v>
+        <v>518.1242534518242</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2667,16 +2667,16 @@
         <v>27</v>
       </c>
       <c r="C110">
-        <v>1589.794990897179</v>
+        <v>2214.934137761593</v>
       </c>
       <c r="D110">
-        <v>1244.538159966469</v>
+        <v>1641.76888769865</v>
       </c>
       <c r="E110">
-        <v>985.1509069800377</v>
+        <v>1027.779101192951</v>
       </c>
       <c r="F110">
-        <v>604.4192942976952</v>
+        <v>562.3006876707077</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2687,16 +2687,16 @@
         <v>27</v>
       </c>
       <c r="C111">
-        <v>1671.550665616989</v>
+        <v>2322.193554162979</v>
       </c>
       <c r="D111">
-        <v>1313.856243729591</v>
+        <v>1734.300208032131</v>
       </c>
       <c r="E111">
-        <v>1048.017984867096</v>
+        <v>1092.772762358189</v>
       </c>
       <c r="F111">
-        <v>646.8915796279907</v>
+        <v>604.6125956177711</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2707,16 +2707,16 @@
         <v>28</v>
       </c>
       <c r="C112">
-        <v>1861.892135977745</v>
+        <v>837.6263325810432</v>
       </c>
       <c r="D112">
-        <v>1341.936807453632</v>
+        <v>446.9185042381287</v>
       </c>
       <c r="E112">
-        <v>815.067846596241</v>
+        <v>189.232329249382</v>
       </c>
       <c r="F112">
-        <v>429.3375449180603</v>
+        <v>69.33625084161758</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2727,16 +2727,16 @@
         <v>28</v>
       </c>
       <c r="C113">
-        <v>1991.727169930935</v>
+        <v>908.7200992107391</v>
       </c>
       <c r="D113">
-        <v>1449.705048859119</v>
+        <v>493.9325910806656</v>
       </c>
       <c r="E113">
-        <v>888.5665268301964</v>
+        <v>213.5306243300438</v>
       </c>
       <c r="F113">
-        <v>475.3643891215324</v>
+        <v>80.08063733577728</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2747,16 +2747,16 @@
         <v>28</v>
       </c>
       <c r="C114">
-        <v>2106.105921328068</v>
+        <v>977.8934240341187</v>
       </c>
       <c r="D114">
-        <v>1548.795731246471</v>
+        <v>538.4895106554031</v>
       </c>
       <c r="E114">
-        <v>959.5753737092018</v>
+        <v>237.6326665878296</v>
       </c>
       <c r="F114">
-        <v>518.1242534518242</v>
+        <v>90.67244839668274</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2767,16 +2767,16 @@
         <v>28</v>
       </c>
       <c r="C115">
-        <v>2214.934137761593</v>
+        <v>1044.415025651455</v>
       </c>
       <c r="D115">
-        <v>1641.76888769865</v>
+        <v>582.3843482732773</v>
       </c>
       <c r="E115">
-        <v>1027.779101192951</v>
+        <v>261.2611892223358</v>
       </c>
       <c r="F115">
-        <v>562.3006876707077</v>
+        <v>101.5170537233353</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2787,16 +2787,16 @@
         <v>28</v>
       </c>
       <c r="C116">
-        <v>2322.193554162979</v>
+        <v>1108.767232954502</v>
       </c>
       <c r="D116">
-        <v>1734.300208032131</v>
+        <v>625.1524848341942</v>
       </c>
       <c r="E116">
-        <v>1092.772762358189</v>
+        <v>285.0623432993889</v>
       </c>
       <c r="F116">
-        <v>604.6125956177711</v>
+        <v>112.1650964617729</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2807,16 +2807,16 @@
         <v>29</v>
       </c>
       <c r="C117">
-        <v>837.6263325810432</v>
+        <v>2048.64157474041</v>
       </c>
       <c r="D117">
-        <v>446.9185042381287</v>
+        <v>1524.303337991238</v>
       </c>
       <c r="E117">
-        <v>189.232329249382</v>
+        <v>1188.391510486603</v>
       </c>
       <c r="F117">
-        <v>69.33625084161758</v>
+        <v>850.4308958053589</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2827,16 +2827,16 @@
         <v>29</v>
       </c>
       <c r="C118">
-        <v>908.7200992107391</v>
+        <v>2176.650778234005</v>
       </c>
       <c r="D118">
-        <v>493.9325910806656</v>
+        <v>1627.235871851444</v>
       </c>
       <c r="E118">
-        <v>213.5306243300438</v>
+        <v>1275.639413416386</v>
       </c>
       <c r="F118">
-        <v>80.08063733577728</v>
+        <v>918.0739293694496</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2847,16 +2847,16 @@
         <v>29</v>
       </c>
       <c r="C119">
-        <v>977.8934240341187</v>
+        <v>2291.032708525658</v>
       </c>
       <c r="D119">
-        <v>538.4895106554031</v>
+        <v>1720.019951224327</v>
       </c>
       <c r="E119">
-        <v>237.6326665878296</v>
+        <v>1354.343595862389</v>
       </c>
       <c r="F119">
-        <v>90.67244839668274</v>
+        <v>980.3375933170319</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2867,16 +2867,16 @@
         <v>29</v>
       </c>
       <c r="C120">
-        <v>1044.415025651455</v>
+        <v>2400.974631011486</v>
       </c>
       <c r="D120">
-        <v>582.3843482732773</v>
+        <v>1812.476114153862</v>
       </c>
       <c r="E120">
-        <v>261.2611892223358</v>
+        <v>1431.35782045126</v>
       </c>
       <c r="F120">
-        <v>101.5170537233353</v>
+        <v>1040.612736105919</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2887,16 +2887,16 @@
         <v>29</v>
       </c>
       <c r="C121">
-        <v>1108.767232954502</v>
+        <v>2504.189896166325</v>
       </c>
       <c r="D121">
-        <v>625.1524848341942</v>
+        <v>1895.440679788589</v>
       </c>
       <c r="E121">
-        <v>285.0623432993889</v>
+        <v>1501.442538499832</v>
       </c>
       <c r="F121">
-        <v>112.1650964617729</v>
+        <v>1098.305528759956</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2907,16 +2907,16 @@
         <v>30</v>
       </c>
       <c r="C122">
-        <v>2048.64157474041</v>
+        <v>1235.512368261814</v>
       </c>
       <c r="D122">
-        <v>1524.303337991238</v>
+        <v>662.7838175296783</v>
       </c>
       <c r="E122">
-        <v>1188.391510486603</v>
+        <v>493.5585297942162</v>
       </c>
       <c r="F122">
-        <v>850.4308958053589</v>
+        <v>375.9748919010162</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2927,16 +2927,16 @@
         <v>30</v>
       </c>
       <c r="C123">
-        <v>2176.650778234005</v>
+        <v>1325.299086153507</v>
       </c>
       <c r="D123">
-        <v>1627.235871851444</v>
+        <v>729.691873550415</v>
       </c>
       <c r="E123">
-        <v>1275.639413416386</v>
+        <v>548.583347260952</v>
       </c>
       <c r="F123">
-        <v>918.0739293694496</v>
+        <v>421.343171775341</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2947,16 +2947,16 @@
         <v>30</v>
       </c>
       <c r="C124">
-        <v>2291.032708525658</v>
+        <v>1410.358276546001</v>
       </c>
       <c r="D124">
-        <v>1720.019951224327</v>
+        <v>796.7720628380775</v>
       </c>
       <c r="E124">
-        <v>1354.343595862389</v>
+        <v>602.9315044879913</v>
       </c>
       <c r="F124">
-        <v>980.3375933170319</v>
+        <v>465.0983541607857</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2967,16 +2967,16 @@
         <v>30</v>
       </c>
       <c r="C125">
-        <v>2400.974631011486</v>
+        <v>1490.03730648756</v>
       </c>
       <c r="D125">
-        <v>1812.476114153862</v>
+        <v>858.0644109845161</v>
       </c>
       <c r="E125">
-        <v>1431.35782045126</v>
+        <v>654.7506504654884</v>
       </c>
       <c r="F125">
-        <v>1040.612736105919</v>
+        <v>507.2924704551697</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2987,16 +2987,16 @@
         <v>30</v>
       </c>
       <c r="C126">
-        <v>2504.189896166325</v>
+        <v>1567.997725248337</v>
       </c>
       <c r="D126">
-        <v>1895.440679788589</v>
+        <v>920.6912888288498</v>
       </c>
       <c r="E126">
-        <v>1501.442538499832</v>
+        <v>705.2688213586807</v>
       </c>
       <c r="F126">
-        <v>1098.305528759956</v>
+        <v>550.3703375458717</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3007,16 +3007,16 @@
         <v>31</v>
       </c>
       <c r="C127">
-        <v>1235.512368261814</v>
+        <v>1541.20716303587</v>
       </c>
       <c r="D127">
-        <v>662.7838175296783</v>
+        <v>998.7477750778198</v>
       </c>
       <c r="E127">
-        <v>493.5585297942162</v>
+        <v>715.1124797463417</v>
       </c>
       <c r="F127">
-        <v>375.9748919010162</v>
+        <v>353.2952439785004</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3027,16 +3027,16 @@
         <v>31</v>
       </c>
       <c r="C128">
-        <v>1325.299086153507</v>
+        <v>1635.944961965084</v>
       </c>
       <c r="D128">
-        <v>729.691873550415</v>
+        <v>1066.219932019711</v>
       </c>
       <c r="E128">
-        <v>548.583347260952</v>
+        <v>767.7444180846214</v>
       </c>
       <c r="F128">
-        <v>421.343171775341</v>
+        <v>380.2918564677238</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3047,16 +3047,16 @@
         <v>31</v>
       </c>
       <c r="C129">
-        <v>1410.358276546001</v>
+        <v>1722.925489604473</v>
       </c>
       <c r="D129">
-        <v>796.7720628380775</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>602.9315044879913</v>
+        <v>818.428347826004</v>
       </c>
       <c r="F129">
-        <v>465.0983541607857</v>
+        <v>406.4011368155479</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3067,16 +3067,16 @@
         <v>31</v>
       </c>
       <c r="C130">
-        <v>1490.03730648756</v>
+        <v>1804.89830738306</v>
       </c>
       <c r="D130">
-        <v>858.0644109845161</v>
+        <v>1192.588658511639</v>
       </c>
       <c r="E130">
-        <v>654.7506504654884</v>
+        <v>866.3668356537819</v>
       </c>
       <c r="F130">
-        <v>507.2924704551697</v>
+        <v>430.9836108088493</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3087,16 +3087,16 @@
         <v>31</v>
       </c>
       <c r="C131">
-        <v>1567.997725248337</v>
+        <v>1879.942884743214</v>
       </c>
       <c r="D131">
-        <v>920.6912888288498</v>
+        <v>1249.555326282978</v>
       </c>
       <c r="E131">
-        <v>705.2688213586807</v>
+        <v>912.3039106726646</v>
       </c>
       <c r="F131">
-        <v>550.3703375458717</v>
+        <v>454.9136902689934</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3206,7 +3206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4280,16 +4280,16 @@
         <v>23</v>
       </c>
       <c r="C54">
-        <v>2183.274360199459</v>
+        <v>4335.09048619587</v>
       </c>
       <c r="D54">
-        <v>2108.514657133259</v>
+        <v>4278.155165070668</v>
       </c>
       <c r="E54">
-        <v>2108.514657133259</v>
+        <v>4239.306588788517</v>
       </c>
       <c r="F54">
-        <v>2108.514657133259</v>
+        <v>4168.334896015003</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4300,16 +4300,16 @@
         <v>23</v>
       </c>
       <c r="C55">
-        <v>2266.625714551657</v>
+        <v>4474.823647866026</v>
       </c>
       <c r="D55">
-        <v>2190.054782411084</v>
+        <v>4411.306341225281</v>
       </c>
       <c r="E55">
-        <v>2190.054782411084</v>
+        <v>4369.454344303347</v>
       </c>
       <c r="F55">
-        <v>2190.054782411084</v>
+        <v>4299.289235630073</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4320,16 +4320,16 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>2300.902971817181</v>
+        <v>4533.564916032366</v>
       </c>
       <c r="D56">
-        <v>2224.761130847037</v>
+        <v>4468.890666681342</v>
       </c>
       <c r="E56">
-        <v>2224.761130847037</v>
+        <v>4422.495837335475</v>
       </c>
       <c r="F56">
-        <v>2224.761130847037</v>
+        <v>4355.946879304945</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4340,16 +4340,16 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>2363.180439835414</v>
+        <v>4633.606037246063</v>
       </c>
       <c r="D57">
-        <v>2285.904641808011</v>
+        <v>4567.249516957439</v>
       </c>
       <c r="E57">
-        <v>2285.904641808011</v>
+        <v>4511.886683093384</v>
       </c>
       <c r="F57">
-        <v>2285.904641808011</v>
+        <v>4449.841148620471</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4360,16 +4360,16 @@
         <v>24</v>
       </c>
       <c r="C58">
-        <v>4335.09048619587</v>
+        <v>3701.378793229349</v>
       </c>
       <c r="D58">
-        <v>4278.155165070668</v>
+        <v>3515.83027680032</v>
       </c>
       <c r="E58">
-        <v>4239.306588788517</v>
+        <v>3453.867397326976</v>
       </c>
       <c r="F58">
-        <v>4168.334896015003</v>
+        <v>3381.020790426061</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4380,16 +4380,16 @@
         <v>24</v>
       </c>
       <c r="C59">
-        <v>4474.823647866026</v>
+        <v>3835.900390129536</v>
       </c>
       <c r="D59">
-        <v>4411.306341225281</v>
+        <v>3649.958682899363</v>
       </c>
       <c r="E59">
-        <v>4369.454344303347</v>
+        <v>3588.844595178962</v>
       </c>
       <c r="F59">
-        <v>4299.289235630073</v>
+        <v>3510.00289837271</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4400,16 +4400,16 @@
         <v>24</v>
       </c>
       <c r="C60">
-        <v>4533.564916032366</v>
+        <v>3893.18142687995</v>
       </c>
       <c r="D60">
-        <v>4468.890666681342</v>
+        <v>3707.133432632312</v>
       </c>
       <c r="E60">
-        <v>4422.495837335475</v>
+        <v>3646.155625119805</v>
       </c>
       <c r="F60">
-        <v>4355.946879304945</v>
+        <v>3565.135307770222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4420,16 +4420,16 @@
         <v>24</v>
       </c>
       <c r="C61">
-        <v>4633.606037246063</v>
+        <v>3994.065821873955</v>
       </c>
       <c r="D61">
-        <v>4567.249516957439</v>
+        <v>3807.654034708627</v>
       </c>
       <c r="E61">
-        <v>4511.886683093384</v>
+        <v>3747.270229960792</v>
       </c>
       <c r="F61">
-        <v>4449.841148620471</v>
+        <v>3662.312051481567</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4440,16 +4440,16 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <v>3701.378793229349</v>
+        <v>2777.376763748005</v>
       </c>
       <c r="D62">
-        <v>3515.83027680032</v>
+        <v>2777.376763748005</v>
       </c>
       <c r="E62">
-        <v>3453.867397326976</v>
+        <v>2777.376763748005</v>
       </c>
       <c r="F62">
-        <v>3381.020790426061</v>
+        <v>2724.513830953278</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4460,16 +4460,16 @@
         <v>25</v>
       </c>
       <c r="C63">
-        <v>3835.900390129536</v>
+        <v>2889.373362679034</v>
       </c>
       <c r="D63">
-        <v>3649.958682899363</v>
+        <v>2889.373362679034</v>
       </c>
       <c r="E63">
-        <v>3588.844595178962</v>
+        <v>2889.373362679034</v>
       </c>
       <c r="F63">
-        <v>3510.00289837271</v>
+        <v>2832.764858206734</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4480,16 +4480,16 @@
         <v>25</v>
       </c>
       <c r="C64">
-        <v>3893.18142687995</v>
+        <v>2937.29472562857</v>
       </c>
       <c r="D64">
-        <v>3707.133432632312</v>
+        <v>2937.29472562857</v>
       </c>
       <c r="E64">
-        <v>3646.155625119805</v>
+        <v>2937.29472562857</v>
       </c>
       <c r="F64">
-        <v>3565.135307770222</v>
+        <v>2877.968526558951</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4500,16 +4500,16 @@
         <v>25</v>
       </c>
       <c r="C65">
-        <v>3994.065821873955</v>
+        <v>3021.516842307523</v>
       </c>
       <c r="D65">
-        <v>3807.654034708627</v>
+        <v>3021.516842307523</v>
       </c>
       <c r="E65">
-        <v>3747.270229960792</v>
+        <v>3021.516842307523</v>
       </c>
       <c r="F65">
-        <v>3662.312051481567</v>
+        <v>2959.571779896505</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4520,16 +4520,16 @@
         <v>26</v>
       </c>
       <c r="C66">
-        <v>2777.376763748005</v>
+        <v>1850.794092060067</v>
       </c>
       <c r="D66">
-        <v>2777.376763748005</v>
+        <v>1799.870604331605</v>
       </c>
       <c r="E66">
-        <v>2777.376763748005</v>
+        <v>1561.139701770619</v>
       </c>
       <c r="F66">
-        <v>2724.513830953278</v>
+        <v>1561.139701770619</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4540,16 +4540,16 @@
         <v>26</v>
       </c>
       <c r="C67">
-        <v>2889.373362679034</v>
+        <v>1947.245296792127</v>
       </c>
       <c r="D67">
-        <v>2889.373362679034</v>
+        <v>1898.815088885836</v>
       </c>
       <c r="E67">
-        <v>2889.373362679034</v>
+        <v>1649.881677495316</v>
       </c>
       <c r="F67">
-        <v>2832.764858206734</v>
+        <v>1649.881677495316</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4560,16 +4560,16 @@
         <v>26</v>
       </c>
       <c r="C68">
-        <v>2937.29472562857</v>
+        <v>1989.129211247899</v>
       </c>
       <c r="D68">
-        <v>2937.29472562857</v>
+        <v>1941.793102053925</v>
       </c>
       <c r="E68">
-        <v>2937.29472562857</v>
+        <v>1688.372960221022</v>
       </c>
       <c r="F68">
-        <v>2877.968526558951</v>
+        <v>1688.372960221022</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4580,16 +4580,16 @@
         <v>26</v>
       </c>
       <c r="C69">
-        <v>3021.516842307523</v>
+        <v>2064.701796034351</v>
       </c>
       <c r="D69">
-        <v>3021.516842307523</v>
+        <v>2018.605307576247</v>
       </c>
       <c r="E69">
-        <v>3021.516842307523</v>
+        <v>1757.645774805918</v>
       </c>
       <c r="F69">
-        <v>2959.571779896505</v>
+        <v>1757.645774805918</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4597,19 +4597,19 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>1850.794092060067</v>
+        <v>902.9776683989912</v>
       </c>
       <c r="D70">
-        <v>1799.870604331605</v>
+        <v>902.9776683989912</v>
       </c>
       <c r="E70">
-        <v>1561.139701770619</v>
+        <v>902.9776683989912</v>
       </c>
       <c r="F70">
-        <v>1561.139701770619</v>
+        <v>902.9776683989912</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4617,19 +4617,19 @@
         <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>1947.245296792127</v>
+        <v>950.8296293001622</v>
       </c>
       <c r="D71">
-        <v>1898.815088885836</v>
+        <v>950.8296293001622</v>
       </c>
       <c r="E71">
-        <v>1649.881677495316</v>
+        <v>950.8296293001622</v>
       </c>
       <c r="F71">
-        <v>1649.881677495316</v>
+        <v>950.8296293001622</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4637,19 +4637,19 @@
         <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>1989.129211247899</v>
+        <v>971.7057672319934</v>
       </c>
       <c r="D72">
-        <v>1941.793102053925</v>
+        <v>971.7057672319934</v>
       </c>
       <c r="E72">
-        <v>1688.372960221022</v>
+        <v>971.7057672319934</v>
       </c>
       <c r="F72">
-        <v>1688.372960221022</v>
+        <v>971.7057672319934</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4657,19 +4657,19 @@
         <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>2064.701796034351</v>
+        <v>1009.349957607687</v>
       </c>
       <c r="D73">
-        <v>2018.605307576247</v>
+        <v>1009.349957607687</v>
       </c>
       <c r="E73">
-        <v>1757.645774805918</v>
+        <v>1009.349957607687</v>
       </c>
       <c r="F73">
-        <v>1757.645774805918</v>
+        <v>1009.349957607687</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4680,16 +4680,16 @@
         <v>29</v>
       </c>
       <c r="C74">
-        <v>902.9776683989912</v>
+        <v>2902.226679587737</v>
       </c>
       <c r="D74">
-        <v>902.9776683989912</v>
+        <v>2315.025327574462</v>
       </c>
       <c r="E74">
-        <v>902.9776683989912</v>
+        <v>1731.638803405687</v>
       </c>
       <c r="F74">
-        <v>902.9776683989912</v>
+        <v>1503.673371118493</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4700,16 +4700,16 @@
         <v>29</v>
       </c>
       <c r="C75">
-        <v>950.8296293001622</v>
+        <v>3004.297046642751</v>
       </c>
       <c r="D75">
-        <v>950.8296293001622</v>
+        <v>2400.058344172314</v>
       </c>
       <c r="E75">
-        <v>950.8296293001622</v>
+        <v>1825.298224644735</v>
       </c>
       <c r="F75">
-        <v>950.8296293001622</v>
+        <v>1582.986180850305</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4720,16 +4720,16 @@
         <v>29</v>
       </c>
       <c r="C76">
-        <v>971.7057672319934</v>
+        <v>3047.702262162231</v>
       </c>
       <c r="D76">
-        <v>971.7057672319934</v>
+        <v>2436.038276306354</v>
       </c>
       <c r="E76">
-        <v>971.7057672319934</v>
+        <v>1857.126806765795</v>
       </c>
       <c r="F76">
-        <v>971.7057672319934</v>
+        <v>1619.89783283975</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4740,16 +4740,16 @@
         <v>29</v>
       </c>
       <c r="C77">
-        <v>1009.349957607687</v>
+        <v>3122.031407553703</v>
       </c>
       <c r="D77">
-        <v>1009.349957607687</v>
+        <v>2499.419796512462</v>
       </c>
       <c r="E77">
-        <v>1009.349957607687</v>
+        <v>1913.742012614384</v>
       </c>
       <c r="F77">
-        <v>1009.349957607687</v>
+        <v>1668.775065403432</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4760,16 +4760,16 @@
         <v>30</v>
       </c>
       <c r="C78">
-        <v>2902.226679587737</v>
+        <v>3179.801477998495</v>
       </c>
       <c r="D78">
-        <v>2315.025327574462</v>
+        <v>2599.731954005547</v>
       </c>
       <c r="E78">
-        <v>1731.638803405687</v>
+        <v>2211.228871316649</v>
       </c>
       <c r="F78">
-        <v>1503.673371118493</v>
+        <v>1596.856395817362</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4780,16 +4780,16 @@
         <v>30</v>
       </c>
       <c r="C79">
-        <v>3004.297046642751</v>
+        <v>3308.987553254701</v>
       </c>
       <c r="D79">
-        <v>2400.058344172314</v>
+        <v>2725.773173653521</v>
       </c>
       <c r="E79">
-        <v>1825.298224644735</v>
+        <v>2319.355974745937</v>
       </c>
       <c r="F79">
-        <v>1582.986180850305</v>
+        <v>1676.531850663014</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4800,16 +4800,16 @@
         <v>30</v>
       </c>
       <c r="C80">
-        <v>3047.702262162231</v>
+        <v>3363.165286182426</v>
       </c>
       <c r="D80">
-        <v>2436.038276306354</v>
+        <v>2780.207279570401</v>
       </c>
       <c r="E80">
-        <v>1857.126806765795</v>
+        <v>2365.753085954115</v>
       </c>
       <c r="F80">
-        <v>1619.89783283975</v>
+        <v>1710.866363768466</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4820,16 +4820,16 @@
         <v>30</v>
       </c>
       <c r="C81">
-        <v>3122.031407553703</v>
+        <v>3460.336588341743</v>
       </c>
       <c r="D81">
-        <v>2499.419796512462</v>
+        <v>2876.113258665428</v>
       </c>
       <c r="E81">
-        <v>1913.742012614384</v>
+        <v>2448.355136732571</v>
       </c>
       <c r="F81">
-        <v>1668.775065403432</v>
+        <v>1772.603532041423</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4837,19 +4837,19 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82">
-        <v>3179.801477998495</v>
+        <v>4172.400136458687</v>
       </c>
       <c r="D82">
-        <v>2599.731954005547</v>
+        <v>3873.059447146021</v>
       </c>
       <c r="E82">
-        <v>2211.228871316649</v>
+        <v>3627.529885036871</v>
       </c>
       <c r="F82">
-        <v>1596.856395817362</v>
+        <v>3366.200209696777</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4857,19 +4857,19 @@
         <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83">
-        <v>3308.987553254701</v>
+        <v>4284.974457044154</v>
       </c>
       <c r="D83">
-        <v>2725.773173653521</v>
+        <v>3991.497676415369</v>
       </c>
       <c r="E83">
-        <v>2319.355974745937</v>
+        <v>3738.809453439899</v>
       </c>
       <c r="F83">
-        <v>1676.531850663014</v>
+        <v>3475.440024910495</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4877,19 +4877,19 @@
         <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84">
-        <v>3363.165286182426</v>
+        <v>4331.297058562748</v>
       </c>
       <c r="D84">
-        <v>2780.207279570401</v>
+        <v>4041.50435784366</v>
       </c>
       <c r="E84">
-        <v>2365.753085954115</v>
+        <v>3790.0902848728</v>
       </c>
       <c r="F84">
-        <v>1710.866363768466</v>
+        <v>3527.141216627322</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4897,98 +4897,18 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C85">
-        <v>3460.336588341743</v>
+        <v>4417.843115345575</v>
       </c>
       <c r="D85">
-        <v>2876.113258665428</v>
+        <v>4123.537542345934</v>
       </c>
       <c r="E85">
-        <v>2448.355136732571</v>
+        <v>3878.943859986961</v>
       </c>
       <c r="F85">
-        <v>1772.603532041423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86">
-        <v>4172.400136458687</v>
-      </c>
-      <c r="D86">
-        <v>3873.059447146021</v>
-      </c>
-      <c r="E86">
-        <v>3627.529885036871</v>
-      </c>
-      <c r="F86">
-        <v>3366.200209696777</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>120</v>
-      </c>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87">
-        <v>4284.974457044154</v>
-      </c>
-      <c r="D87">
-        <v>3991.497676415369</v>
-      </c>
-      <c r="E87">
-        <v>3738.809453439899</v>
-      </c>
-      <c r="F87">
-        <v>3475.440024910495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>130</v>
-      </c>
-      <c r="B88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88">
-        <v>4331.297058562748</v>
-      </c>
-      <c r="D88">
-        <v>4041.50435784366</v>
-      </c>
-      <c r="E88">
-        <v>3790.0902848728</v>
-      </c>
-      <c r="F88">
-        <v>3527.141216627322</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>150</v>
-      </c>
-      <c r="B89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89">
-        <v>4417.843115345575</v>
-      </c>
-      <c r="D89">
-        <v>4123.537542345934</v>
-      </c>
-      <c r="E89">
-        <v>3878.943859986961</v>
-      </c>
-      <c r="F89">
         <v>3606.575570476241</v>
       </c>
     </row>
@@ -4999,7 +4919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5279,7 +5199,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>800.1495496704625</v>
@@ -5296,7 +5216,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1271.085173010904</v>
@@ -5313,7 +5233,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1772.908122710768</v>
@@ -5330,7 +5250,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1491.597543629729</v>
@@ -5347,7 +5267,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1297.896930761573</v>
@@ -5364,7 +5284,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1391.622585764305</v>
@@ -5381,7 +5301,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2050.58263373399</v>
@@ -5398,7 +5318,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>909.4226664100015</v>
@@ -5415,18 +5335,35 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1454.443934210046</v>
+      </c>
+      <c r="C25">
+        <v>1396.195655624956</v>
+      </c>
+      <c r="D25">
+        <v>1384.403167140272</v>
+      </c>
+      <c r="E25">
+        <v>1346.157242560637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1227.695325404156</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1164.481464956607</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>1131.500707959445</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1101.168220626289</v>
       </c>
     </row>
@@ -5754,16 +5691,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1796.673188701752</v>
+        <v>928.8511360341778</v>
       </c>
       <c r="C19">
-        <v>1796.673188701752</v>
+        <v>813.2356794450787</v>
       </c>
       <c r="D19">
-        <v>1794.439365072262</v>
+        <v>736.1661932573647</v>
       </c>
       <c r="E19">
-        <v>1794.439365072262</v>
+        <v>655.7321918891065</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5771,16 +5708,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>928.8511360341778</v>
+        <v>1273.152363912779</v>
       </c>
       <c r="C20">
-        <v>813.2356794450787</v>
+        <v>1248.929234338325</v>
       </c>
       <c r="D20">
-        <v>736.1661932573647</v>
+        <v>1227.586790957984</v>
       </c>
       <c r="E20">
-        <v>655.7321918891065</v>
+        <v>1183.930689575113</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5788,16 +5725,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1273.152363912779</v>
+        <v>1818.581508355931</v>
       </c>
       <c r="C21">
-        <v>1248.929234338325</v>
+        <v>1713.801094327607</v>
       </c>
       <c r="D21">
-        <v>1227.586790957984</v>
+        <v>1663.952030782774</v>
       </c>
       <c r="E21">
-        <v>1183.930689575113</v>
+        <v>1653.6661088541</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5805,16 +5742,16 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1818.581508355931</v>
+        <v>1444.037472513454</v>
       </c>
       <c r="C22">
-        <v>1713.801094327607</v>
+        <v>1417.965512498977</v>
       </c>
       <c r="D22">
-        <v>1663.952030782774</v>
+        <v>1388.728657984853</v>
       </c>
       <c r="E22">
-        <v>1653.6661088541</v>
+        <v>1368.602387990994</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5822,16 +5759,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1444.037472513454</v>
+        <v>1325.542640048631</v>
       </c>
       <c r="C23">
-        <v>1417.965512498977</v>
+        <v>1304.553611041183</v>
       </c>
       <c r="D23">
-        <v>1388.728657984853</v>
+        <v>1295.687960327162</v>
       </c>
       <c r="E23">
-        <v>1368.602387990994</v>
+        <v>1291.849458097553</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5839,16 +5776,16 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1325.542640048631</v>
+        <v>1380.561294203357</v>
       </c>
       <c r="C24">
-        <v>1304.553611041183</v>
+        <v>1380.175089558726</v>
       </c>
       <c r="D24">
-        <v>1295.687960327162</v>
+        <v>1371.175406295972</v>
       </c>
       <c r="E24">
-        <v>1291.849458097553</v>
+        <v>1355.881190350131</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5856,16 +5793,16 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1380.561294203357</v>
+        <v>1859.949632086058</v>
       </c>
       <c r="C25">
-        <v>1380.175089558726</v>
+        <v>1793.901102114377</v>
       </c>
       <c r="D25">
-        <v>1371.175406295972</v>
+        <v>1761.415185498268</v>
       </c>
       <c r="E25">
-        <v>1355.881190350131</v>
+        <v>1722.760394453647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5873,16 +5810,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1859.949632086058</v>
+        <v>1041.262890381925</v>
       </c>
       <c r="C26">
-        <v>1793.901102114377</v>
+        <v>891.5881328343361</v>
       </c>
       <c r="D26">
-        <v>1761.415185498268</v>
+        <v>848.1697540724834</v>
       </c>
       <c r="E26">
-        <v>1722.760394453647</v>
+        <v>807.1292256336436</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5890,16 +5827,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1041.262890381925</v>
+        <v>1483.457073051132</v>
       </c>
       <c r="C27">
-        <v>891.5881328343361</v>
+        <v>1384.403167140272</v>
       </c>
       <c r="D27">
-        <v>848.1697540724834</v>
+        <v>1379.782715489062</v>
       </c>
       <c r="E27">
-        <v>807.1292256336436</v>
+        <v>1346.157242560637</v>
       </c>
     </row>
     <row r="28" spans="1:5">

--- a/greta_summary.xlsx
+++ b/greta_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="36">
   <si>
     <t>height</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>FLH_q30</t>
+  </si>
+  <si>
+    <t>Power_Potential_GW</t>
+  </si>
+  <si>
+    <t>Power_Potential_Weighted_GW</t>
   </si>
   <si>
     <t>Austria</t>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
   <si>
     <t>Norway</t>
@@ -473,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,13 +507,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1755.024177730083</v>
@@ -518,13 +533,19 @@
       <c r="F2">
         <v>157.2622162699699</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>670.8760319446901</v>
+      </c>
+      <c r="H2">
+        <v>199.3537915852358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1873.614064753056</v>
@@ -538,13 +559,19 @@
       <c r="F3">
         <v>174.5056512355804</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>670.8760319446901</v>
+      </c>
+      <c r="H3">
+        <v>199.3537915852358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1981.044823765755</v>
@@ -558,13 +585,19 @@
       <c r="F4">
         <v>190.8887132406235</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>670.8760319446901</v>
+      </c>
+      <c r="H4">
+        <v>199.3537915852358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2086.189840137959</v>
@@ -578,13 +611,19 @@
       <c r="F5">
         <v>207.0757324695587</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>670.8760319446901</v>
+      </c>
+      <c r="H5">
+        <v>199.3537915852358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2183.838025808334</v>
@@ -598,13 +637,19 @@
       <c r="F6">
         <v>223.5337835550308</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>670.8760319446901</v>
+      </c>
+      <c r="H6">
+        <v>199.3537915852358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2699.283148109913</v>
@@ -618,13 +663,19 @@
       <c r="F7">
         <v>2248.306801736355</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>245.6629860175078</v>
+      </c>
+      <c r="H7">
+        <v>99.75400239810817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2847.01400321722</v>
@@ -638,13 +689,19 @@
       <c r="F8">
         <v>2379.697601556778</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>245.6629860175078</v>
+      </c>
+      <c r="H8">
+        <v>99.75400239810817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2980.177217245102</v>
@@ -658,13 +715,19 @@
       <c r="F9">
         <v>2495.722497224808</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>245.6629860175078</v>
+      </c>
+      <c r="H9">
+        <v>99.75400239810817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>3107.402412354946</v>
@@ -678,13 +741,19 @@
       <c r="F10">
         <v>2610.11238515377</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>245.6629860175078</v>
+      </c>
+      <c r="H10">
+        <v>99.75400239810817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>3225.949302136898</v>
@@ -698,13 +767,19 @@
       <c r="F11">
         <v>2711.946170210838</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>245.6629860175078</v>
+      </c>
+      <c r="H11">
+        <v>99.75400239810817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1303.011405348778</v>
@@ -718,13 +793,19 @@
       <c r="F12">
         <v>317.4869074225426</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>892.7058683751068</v>
+      </c>
+      <c r="H12">
+        <v>357.0574299942417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1407.017452776432</v>
@@ -738,13 +819,19 @@
       <c r="F13">
         <v>352.6073794960976</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>892.7058683751068</v>
+      </c>
+      <c r="H13">
+        <v>357.0574299942417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1500.471694529057</v>
@@ -758,13 +845,19 @@
       <c r="F14">
         <v>386.1804326176643</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>892.7058683751068</v>
+      </c>
+      <c r="H14">
+        <v>357.0574299942417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1593.729395389557</v>
@@ -778,13 +871,19 @@
       <c r="F15">
         <v>420.4413996934891</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>892.7058683751068</v>
+      </c>
+      <c r="H15">
+        <v>357.0574299942417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1680.580127000809</v>
@@ -798,13 +897,19 @@
       <c r="F16">
         <v>452.1463258862495</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>892.7058683751068</v>
+      </c>
+      <c r="H16">
+        <v>357.0574299942417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1333.319514274597</v>
@@ -818,13 +923,19 @@
       <c r="F17">
         <v>396.6169798374176</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>456.6288338445715</v>
+      </c>
+      <c r="H17">
+        <v>183.7451722039721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>1426.00900799036</v>
@@ -838,13 +949,19 @@
       <c r="F18">
         <v>438.9615540504456</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>456.6288338445715</v>
+      </c>
+      <c r="H18">
+        <v>183.7451722039721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1514.888513088226</v>
@@ -858,13 +975,19 @@
       <c r="F19">
         <v>479.6054425835609</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>456.6288338445715</v>
+      </c>
+      <c r="H19">
+        <v>183.7451722039721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1596.933363616467</v>
@@ -878,13 +1001,19 @@
       <c r="F20">
         <v>520.4480584859848</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>456.6288338445715</v>
+      </c>
+      <c r="H20">
+        <v>183.7451722039721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>1674.79441511631</v>
@@ -898,13 +1027,19 @@
       <c r="F21">
         <v>559.1121282577515</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>456.6288338445715</v>
+      </c>
+      <c r="H21">
+        <v>183.7451722039721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>2374.991911768913</v>
@@ -918,13 +1053,19 @@
       <c r="F22">
         <v>1321.581824243069</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>630.6821440140257</v>
+      </c>
+      <c r="H22">
+        <v>290.1977954894367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>2522.867134690285</v>
@@ -938,13 +1079,19 @@
       <c r="F23">
         <v>1422.479559123516</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>630.6821440140257</v>
+      </c>
+      <c r="H23">
+        <v>290.1977954894367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>2663.192821919918</v>
@@ -958,13 +1105,19 @@
       <c r="F24">
         <v>1515.793042898178</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>630.6821440140257</v>
+      </c>
+      <c r="H24">
+        <v>290.1977954894367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>2794.510861694813</v>
@@ -978,13 +1131,19 @@
       <c r="F25">
         <v>1602.664955973625</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>630.6821440140257</v>
+      </c>
+      <c r="H25">
+        <v>290.1977954894367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>2918.654068112373</v>
@@ -998,13 +1157,19 @@
       <c r="F26">
         <v>1689.67438441515</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>630.6821440140257</v>
+      </c>
+      <c r="H26">
+        <v>290.1977954894367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>3404.548327445984</v>
@@ -1018,13 +1183,19 @@
       <c r="F27">
         <v>2609.998674750328</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>345.1926168422112</v>
+      </c>
+      <c r="H27">
+        <v>64.76864270719048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>3579.53725028038</v>
@@ -1038,13 +1209,19 @@
       <c r="F28">
         <v>2767.348872363567</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>345.1926168422112</v>
+      </c>
+      <c r="H28">
+        <v>64.76864270719048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>3742.650660276413</v>
@@ -1058,13 +1235,19 @@
       <c r="F29">
         <v>2912.973608374596</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>345.1926168422112</v>
+      </c>
+      <c r="H29">
+        <v>64.76864270719048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>3890.687153339386</v>
@@ -1078,13 +1261,19 @@
       <c r="F30">
         <v>3049.739765822887</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>345.1926168422112</v>
+      </c>
+      <c r="H30">
+        <v>64.76864270719048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>4028.223598599434</v>
@@ -1098,13 +1287,19 @@
       <c r="F31">
         <v>3170.293367743492</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>345.1926168422112</v>
+      </c>
+      <c r="H31">
+        <v>64.76864270719048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>2985.010642111301</v>
@@ -1118,13 +1313,19 @@
       <c r="F32">
         <v>1971.894761800766</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>363.9197334902009</v>
+      </c>
+      <c r="H32">
+        <v>116.7290783010712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>3171.432628333569</v>
@@ -1138,13 +1339,19 @@
       <c r="F33">
         <v>2128.218930900097</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>363.9197334902009</v>
+      </c>
+      <c r="H33">
+        <v>116.7290783010712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>3339.86150097847</v>
@@ -1158,13 +1365,19 @@
       <c r="F34">
         <v>2277.024473011494</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>363.9197334902009</v>
+      </c>
+      <c r="H34">
+        <v>116.7290783010712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>3496.969275832176</v>
@@ -1178,13 +1391,19 @@
       <c r="F35">
         <v>2409.346471905708</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>363.9197334902009</v>
+      </c>
+      <c r="H35">
+        <v>116.7290783010712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>3647.39077603817</v>
@@ -1198,13 +1417,19 @@
       <c r="F36">
         <v>2542.687912762165</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>363.9197334902009</v>
+      </c>
+      <c r="H36">
+        <v>116.7290783010712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>835.3771386742592</v>
@@ -1218,13 +1443,19 @@
       <c r="F37">
         <v>468.7991002202034</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>2695.663689937267</v>
+      </c>
+      <c r="H37">
+        <v>1014.476368136028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>919.1398339867592</v>
@@ -1238,13 +1469,19 @@
       <c r="F38">
         <v>525.7268043756485</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>2695.663689937267</v>
+      </c>
+      <c r="H38">
+        <v>1014.476368136028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>1002.664687275887</v>
@@ -1258,13 +1495,19 @@
       <c r="F39">
         <v>580.760254740715</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>2695.663689937267</v>
+      </c>
+      <c r="H39">
+        <v>1014.476368136028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1079.434758126736</v>
@@ -1278,13 +1521,19 @@
       <c r="F40">
         <v>634.5610774159431</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>2695.663689937267</v>
+      </c>
+      <c r="H40">
+        <v>1014.476368136028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>1157.442730844021</v>
@@ -1298,13 +1547,19 @@
       <c r="F41">
         <v>687.8341308236122</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>2695.663689937267</v>
+      </c>
+      <c r="H41">
+        <v>1014.476368136028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>2519.528479397297</v>
@@ -1318,13 +1573,19 @@
       <c r="F42">
         <v>1479.537819623947</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>4396.151748730186</v>
+      </c>
+      <c r="H42">
+        <v>1957.709338803209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>2656.50479221344</v>
@@ -1338,13 +1599,19 @@
       <c r="F43">
         <v>1581.765923976898</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>4396.151748730186</v>
+      </c>
+      <c r="H43">
+        <v>1957.709338803209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>2784.599365592003</v>
@@ -1358,13 +1625,19 @@
       <c r="F44">
         <v>1676.188167452812</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>4396.151748730186</v>
+      </c>
+      <c r="H44">
+        <v>1957.709338803209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>2903.399572908878</v>
@@ -1378,13 +1651,19 @@
       <c r="F45">
         <v>1764.290946960449</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>4396.151748730186</v>
+      </c>
+      <c r="H45">
+        <v>1957.709338803209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>3012.454114437103</v>
@@ -1398,13 +1677,19 @@
       <c r="F46">
         <v>1849.232697963715</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>4396.151748730186</v>
+      </c>
+      <c r="H46">
+        <v>1957.709338803209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>2625.077258348465</v>
@@ -1418,13 +1703,19 @@
       <c r="F47">
         <v>1547.875572681427</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>2862.739330245061</v>
+      </c>
+      <c r="H47">
+        <v>761.0030273610538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>2773.687389969826</v>
@@ -1438,13 +1729,19 @@
       <c r="F48">
         <v>1653.364580452442</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>2862.739330245061</v>
+      </c>
+      <c r="H48">
+        <v>761.0030273610538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>2907.864744961262</v>
@@ -1458,13 +1755,19 @@
       <c r="F49">
         <v>1752.236753165722</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>2862.739330245061</v>
+      </c>
+      <c r="H49">
+        <v>761.0030273610538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>3037.114513814449</v>
@@ -1478,13 +1781,19 @@
       <c r="F50">
         <v>1842.592353761196</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>2862.739330245061</v>
+      </c>
+      <c r="H50">
+        <v>761.0030273610538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>3154.892793297768</v>
@@ -1498,13 +1807,19 @@
       <c r="F51">
         <v>1929.384131073952</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>2862.739330245061</v>
+      </c>
+      <c r="H51">
+        <v>761.0030273610538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>1663.018568575382</v>
@@ -1518,13 +1833,19 @@
       <c r="F52">
         <v>215.6451852917671</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>1060.629441471389</v>
+      </c>
+      <c r="H52">
+        <v>432.1272991657174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>1763.210869967937</v>
@@ -1538,13 +1859,19 @@
       <c r="F53">
         <v>238.5410262942314</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>1060.629441471389</v>
+      </c>
+      <c r="H53">
+        <v>432.1272991657174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>1858.563411533833</v>
@@ -1558,13 +1885,19 @@
       <c r="F54">
         <v>260.6044421195984</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>1060.629441471389</v>
+      </c>
+      <c r="H54">
+        <v>432.1272991657174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>1943.88744944334</v>
@@ -1578,13 +1911,19 @@
       <c r="F55">
         <v>282.1505965590477</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>1060.629441471389</v>
+      </c>
+      <c r="H55">
+        <v>432.1272991657174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>2026.975320696831</v>
@@ -1598,13 +1937,19 @@
       <c r="F56">
         <v>303.0106173753738</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>1060.629441471389</v>
+      </c>
+      <c r="H56">
+        <v>432.1272991657174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>1775.321063101292</v>
@@ -1618,13 +1963,19 @@
       <c r="F57">
         <v>1182.672832548618</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>744.435891406254</v>
+      </c>
+      <c r="H57">
+        <v>358.3137002047442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58">
         <v>1896.725914120674</v>
@@ -1638,13 +1989,19 @@
       <c r="F58">
         <v>1276.932381391525</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>744.435891406254</v>
+      </c>
+      <c r="H58">
+        <v>358.3137002047442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>2010.20425838232</v>
@@ -1658,13 +2015,19 @@
       <c r="F59">
         <v>1364.6179433465</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>744.435891406254</v>
+      </c>
+      <c r="H59">
+        <v>358.3137002047442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>2114.914438724518</v>
@@ -1678,13 +2041,19 @@
       <c r="F60">
         <v>1449.21544021368</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>744.435891406254</v>
+      </c>
+      <c r="H60">
+        <v>358.3137002047442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>2218.413984417915</v>
@@ -1698,13 +2067,19 @@
       <c r="F61">
         <v>1526.136868953705</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>744.435891406254</v>
+      </c>
+      <c r="H61">
+        <v>358.3137002047442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>3513.516451716423</v>
@@ -1718,13 +2093,19 @@
       <c r="F62">
         <v>2565.650221705437</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>563.0021262241581</v>
+      </c>
+      <c r="H62">
+        <v>226.7668822606746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>3644.396006941795</v>
@@ -1738,13 +2119,19 @@
       <c r="F63">
         <v>2679.341947734356</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>563.0021262241581</v>
+      </c>
+      <c r="H63">
+        <v>226.7668822606746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>3760.53968244791</v>
@@ -1758,13 +2145,19 @@
       <c r="F64">
         <v>2784.256741940975</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>563.0021262241581</v>
+      </c>
+      <c r="H64">
+        <v>226.7668822606746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>3868.641847610474</v>
@@ -1778,13 +2171,19 @@
       <c r="F65">
         <v>2885.871718227863</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>563.0021262241581</v>
+      </c>
+      <c r="H65">
+        <v>226.7668822606746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>3962.563817858696</v>
@@ -1798,13 +2197,19 @@
       <c r="F66">
         <v>2973.691815316677</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>563.0021262241581</v>
+      </c>
+      <c r="H66">
+        <v>226.7668822606746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>1750.61272996664</v>
@@ -1818,13 +2223,19 @@
       <c r="F67">
         <v>377.1567373871803</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>2406.052818403784</v>
+      </c>
+      <c r="H67">
+        <v>1009.433852425809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>1857.665325343609</v>
@@ -1838,13 +2249,19 @@
       <c r="F68">
         <v>410.5862089395523</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>2406.052818403784</v>
+      </c>
+      <c r="H68">
+        <v>1009.433852425809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>1954.785017073154</v>
@@ -1858,13 +2275,19 @@
       <c r="F69">
         <v>443.9598268270493</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>2406.052818403784</v>
+      </c>
+      <c r="H69">
+        <v>1009.433852425809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>2047.412436068058</v>
@@ -1878,13 +2301,19 @@
       <c r="F70">
         <v>475.3868618607521</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>2406.052818403784</v>
+      </c>
+      <c r="H70">
+        <v>1009.433852425809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>2131.344424307346</v>
@@ -1898,13 +2327,19 @@
       <c r="F71">
         <v>506.2734665870667</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>2406.052818403784</v>
+      </c>
+      <c r="H71">
+        <v>1009.433852425809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>2858.597985386848</v>
@@ -1918,13 +2353,19 @@
       <c r="F72">
         <v>1181.052711009979</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>517.6695204377882</v>
+      </c>
+      <c r="H72">
+        <v>209.2367196271294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>3040.924117386341</v>
@@ -1938,13 +2379,19 @@
       <c r="F73">
         <v>1293.519728004932</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>517.6695204377882</v>
+      </c>
+      <c r="H73">
+        <v>209.2367196271294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74">
         <v>3207.67763030529</v>
@@ -1958,13 +2405,19 @@
       <c r="F74">
         <v>1402.181882023811</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>517.6695204377882</v>
+      </c>
+      <c r="H74">
+        <v>209.2367196271294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>3363.645706892014</v>
@@ -1978,13 +2431,19 @@
       <c r="F75">
         <v>1500.495851993561</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>517.6695204377882</v>
+      </c>
+      <c r="H75">
+        <v>209.2367196271294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>3511.148322105408</v>
@@ -1998,13 +2457,19 @@
       <c r="F76">
         <v>1600.396757721901</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>517.6695204377882</v>
+      </c>
+      <c r="H76">
+        <v>209.2367196271294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>2422.551857769489</v>
@@ -2018,13 +2483,19 @@
       <c r="F77">
         <v>975.6212377548218</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>520.1444041935357</v>
+      </c>
+      <c r="H77">
+        <v>209.1430670901062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>2579.171391248703</v>
@@ -2038,13 +2509,19 @@
       <c r="F78">
         <v>1068.756533384323</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>520.1444041935357</v>
+      </c>
+      <c r="H78">
+        <v>209.1430670901062</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C79">
         <v>2722.193067967892</v>
@@ -2058,13 +2535,19 @@
       <c r="F79">
         <v>1153.871510326862</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>520.1444041935357</v>
+      </c>
+      <c r="H79">
+        <v>209.1430670901062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>2861.893426656723</v>
@@ -2078,13 +2561,19 @@
       <c r="F80">
         <v>1234.135354578495</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>520.1444041935357</v>
+      </c>
+      <c r="H80">
+        <v>209.1430670901062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C81">
         <v>2988.460784375668</v>
@@ -2098,13 +2587,19 @@
       <c r="F81">
         <v>1315.352275788784</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>520.1444041935357</v>
+      </c>
+      <c r="H81">
+        <v>209.1430670901062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C82">
         <v>2390.180633068085</v>
@@ -2118,13 +2613,19 @@
       <c r="F82">
         <v>1583.818400382996</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>20.65807525057017</v>
+      </c>
+      <c r="H82">
+        <v>3.510395369667991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C83">
         <v>2541.512012124062</v>
@@ -2138,13 +2639,19 @@
       <c r="F83">
         <v>1689.140121042728</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>20.65807525057017</v>
+      </c>
+      <c r="H83">
+        <v>3.510395369667991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>2680.834862828255</v>
@@ -2158,13 +2665,19 @@
       <c r="F84">
         <v>1787.27086687088</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>20.65807525057017</v>
+      </c>
+      <c r="H84">
+        <v>3.510395369667991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>110</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>2820.028360784054</v>
@@ -2178,13 +2691,19 @@
       <c r="F85">
         <v>1876.071271836758</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>20.65807525057017</v>
+      </c>
+      <c r="H85">
+        <v>3.510395369667991</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>2937.568078041077</v>
@@ -2198,1005 +2717,1337 @@
       <c r="F86">
         <v>1958.50248581171</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>20.65807525057017</v>
+      </c>
+      <c r="H86">
+        <v>3.510395369667991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>3370.751925528049</v>
+      </c>
+      <c r="D87">
+        <v>3164.332901656628</v>
+      </c>
+      <c r="E87">
+        <v>2923.1466588974</v>
+      </c>
+      <c r="F87">
+        <v>2742.928978800774</v>
+      </c>
+      <c r="G87">
+        <v>301.3306367623696</v>
+      </c>
+      <c r="H87">
+        <v>85.04235543833846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
         <v>80</v>
       </c>
-      <c r="B87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87">
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88">
         <v>2275.731623768806</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>1416.522144913673</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>916.4812488555908</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>500.1176800131798</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+      <c r="G88">
+        <v>2601.378604076601</v>
+      </c>
+      <c r="H88">
+        <v>600.6828924686008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88">
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89">
         <v>2387.894743323326</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>1509.775882363319</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>989.4372624754906</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>548.6938955187798</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+      <c r="G89">
+        <v>2601.378604076601</v>
+      </c>
+      <c r="H89">
+        <v>600.6828924686008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
         <v>100</v>
       </c>
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89">
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90">
         <v>2494.119023442268</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>1597.215562164783</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>1059.242387652397</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>598.033249437809</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+      <c r="G90">
+        <v>2601.378604076601</v>
+      </c>
+      <c r="H90">
+        <v>600.6828924686008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
         <v>110</v>
       </c>
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90">
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91">
         <v>2591.285203576088</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>1682.66519588232</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>1124.612134039402</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>642.4829118847847</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+      <c r="G91">
+        <v>2601.378604076601</v>
+      </c>
+      <c r="H91">
+        <v>600.6828924686008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
         <v>120</v>
       </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91">
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92">
         <v>2682.422887325287</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>1761.300552129745</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>1189.397022008896</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>687.306588947773</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+      <c r="G92">
+        <v>2601.378604076601</v>
+      </c>
+      <c r="H92">
+        <v>600.6828924686008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
         <v>80</v>
       </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92">
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93">
         <v>2553.067083179951</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>2267.210143446922</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>2109.120178878307</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>1923.253001928329</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+      <c r="G93">
+        <v>2499.204797699077</v>
+      </c>
+      <c r="H93">
+        <v>853.3664568824827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
         <v>90</v>
       </c>
-      <c r="B93" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93">
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94">
         <v>2717.374789535999</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>2420.792571425438</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>2252.09932333231</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>2059.990745961666</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+      <c r="G94">
+        <v>2499.204797699077</v>
+      </c>
+      <c r="H94">
+        <v>853.3664568824827</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94">
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95">
         <v>2868.647428870201</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>2557.845230281353</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>2385.250291764736</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>2187.971548318863</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+      <c r="G95">
+        <v>2499.204797699077</v>
+      </c>
+      <c r="H95">
+        <v>853.3664568824827</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
         <v>110</v>
       </c>
-      <c r="B95" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95">
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
         <v>3011.605755865574</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>2690.372838377953</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>2511.807695627213</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>2310.848719894886</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+      <c r="G96">
+        <v>2499.204797699077</v>
+      </c>
+      <c r="H96">
+        <v>853.3664568824827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
         <v>120</v>
       </c>
-      <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96">
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97">
         <v>3143.178159475327</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>2815.456739008427</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>2631.745733737946</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>2423.755839943886</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
+      <c r="G97">
+        <v>2499.204797699077</v>
+      </c>
+      <c r="H97">
+        <v>853.3664568824827</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
         <v>80</v>
       </c>
-      <c r="B97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97">
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98">
         <v>2002.66046667099</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>1522.391327857971</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>1205.881502747536</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>784.3784799575806</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
+      <c r="G98">
+        <v>735.0212828250253</v>
+      </c>
+      <c r="H98">
+        <v>387.0228459945479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
         <v>90</v>
       </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98">
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99">
         <v>2155.164343476295</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>1644.396299362183</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>1306.665119707584</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>857.9566776156425</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
+      <c r="G99">
+        <v>735.0212828250253</v>
+      </c>
+      <c r="H99">
+        <v>387.0228459945479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99">
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100">
         <v>2293.333432435989</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>1756.850124239922</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>1405.096832871437</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>929.559429705143</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
+      <c r="G100">
+        <v>735.0212828250253</v>
+      </c>
+      <c r="H100">
+        <v>387.0228459945479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
         <v>110</v>
       </c>
-      <c r="B100" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100">
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101">
         <v>2426.06011068821</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>1864.987583935261</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>1496.18900758028</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>998.2617601156235</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
+      <c r="G101">
+        <v>735.0212828250253</v>
+      </c>
+      <c r="H101">
+        <v>387.0228459945479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
         <v>120</v>
       </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101">
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102">
         <v>2547.674983680248</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>1971.322158753872</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>1584.029371201992</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>1064.38362967968</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
+      <c r="G102">
+        <v>735.0212828250253</v>
+      </c>
+      <c r="H102">
+        <v>387.0228459945479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
         <v>80</v>
       </c>
-      <c r="B102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102">
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103">
         <v>1305.225185334682</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>1006.473532557487</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>788.1479432582855</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>468.8485525250435</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
+      <c r="G103">
+        <v>1906.713134251941</v>
+      </c>
+      <c r="H103">
+        <v>987.1399757841396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
         <v>90</v>
       </c>
-      <c r="B103" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103">
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
         <v>1405.687756836414</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>1089.780430078506</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>859.0778263807297</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>515.3416250944138</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
+      <c r="G104">
+        <v>1906.713134251941</v>
+      </c>
+      <c r="H104">
+        <v>987.1399757841396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
         <v>100</v>
       </c>
-      <c r="B104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104">
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105">
         <v>1497.511786818504</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>1168.922099471092</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>922.6750860214233</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>560.5589485168457</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
+      <c r="G105">
+        <v>1906.713134251941</v>
+      </c>
+      <c r="H105">
+        <v>987.1399757841396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
         <v>110</v>
       </c>
-      <c r="B105" t="s">
-        <v>26</v>
-      </c>
-      <c r="C105">
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106">
         <v>1589.794990897179</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>1244.538159966469</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>985.1509069800377</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>604.4192942976952</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
+      <c r="G106">
+        <v>1906.713134251941</v>
+      </c>
+      <c r="H106">
+        <v>987.1399757841396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
         <v>120</v>
       </c>
-      <c r="B106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106">
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107">
         <v>1671.550665616989</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>1313.856243729591</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>1048.017984867096</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>646.8915796279907</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
+      <c r="G107">
+        <v>1906.713134251941</v>
+      </c>
+      <c r="H107">
+        <v>987.1399757841396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
         <v>80</v>
       </c>
-      <c r="B107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107">
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
         <v>1861.892135977745</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>1341.936807453632</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>815.067846596241</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>429.3375449180603</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
+      <c r="G108">
+        <v>392.7882703401503</v>
+      </c>
+      <c r="H108">
+        <v>152.4201375363416</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
         <v>90</v>
       </c>
-      <c r="B108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108">
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
         <v>1991.727169930935</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>1449.705048859119</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>888.5665268301964</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>475.3643891215324</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
+      <c r="G109">
+        <v>392.7882703401503</v>
+      </c>
+      <c r="H109">
+        <v>152.4201375363416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
         <v>100</v>
       </c>
-      <c r="B109" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109">
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110">
         <v>2106.105921328068</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>1548.795731246471</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>959.5753737092018</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>518.1242534518242</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
+      <c r="G110">
+        <v>392.7882703401503</v>
+      </c>
+      <c r="H110">
+        <v>152.4201375363416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>27</v>
-      </c>
-      <c r="C110">
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
         <v>2214.934137761593</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>1641.76888769865</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>1027.779101192951</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>562.3006876707077</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
+      <c r="G111">
+        <v>392.7882703401503</v>
+      </c>
+      <c r="H111">
+        <v>152.4201375363416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
         <v>120</v>
       </c>
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111">
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112">
         <v>2322.193554162979</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>1734.300208032131</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>1092.772762358189</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>604.6125956177711</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
+      <c r="G112">
+        <v>392.7882703401503</v>
+      </c>
+      <c r="H112">
+        <v>152.4201375363416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
         <v>80</v>
       </c>
-      <c r="B112" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112">
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
         <v>837.6263325810432</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>446.9185042381287</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>189.232329249382</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <v>69.33625084161758</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
+      <c r="G113">
+        <v>159.8380207171909</v>
+      </c>
+      <c r="H113">
+        <v>53.50365633166984</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
         <v>90</v>
       </c>
-      <c r="B113" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113">
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114">
         <v>908.7200992107391</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>493.9325910806656</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>213.5306243300438</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>80.08063733577728</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
+      <c r="G114">
+        <v>159.8380207171909</v>
+      </c>
+      <c r="H114">
+        <v>53.50365633166984</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
         <v>100</v>
       </c>
-      <c r="B114" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114">
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115">
         <v>977.8934240341187</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>538.4895106554031</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>237.6326665878296</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <v>90.67244839668274</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
+      <c r="G115">
+        <v>159.8380207171909</v>
+      </c>
+      <c r="H115">
+        <v>53.50365633166984</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
         <v>110</v>
       </c>
-      <c r="B115" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115">
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116">
         <v>1044.415025651455</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>582.3843482732773</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>261.2611892223358</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <v>101.5170537233353</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
+      <c r="G116">
+        <v>159.8380207171909</v>
+      </c>
+      <c r="H116">
+        <v>53.50365633166984</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
         <v>120</v>
       </c>
-      <c r="B116" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116">
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117">
         <v>1108.767232954502</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>625.1524848341942</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>285.0623432993889</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>112.1650964617729</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
+      <c r="G117">
+        <v>159.8380207171909</v>
+      </c>
+      <c r="H117">
+        <v>53.50365633166984</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
         <v>80</v>
       </c>
-      <c r="B117" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117">
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118">
         <v>2048.64157474041</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>1524.303337991238</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>1188.391510486603</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <v>850.4308958053589</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
+      <c r="G118">
+        <v>4048.373891577306</v>
+      </c>
+      <c r="H118">
+        <v>2021.959541274673</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
         <v>90</v>
       </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118">
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119">
         <v>2176.650778234005</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>1627.235871851444</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>1275.639413416386</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <v>918.0739293694496</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
+      <c r="G119">
+        <v>4048.373891577306</v>
+      </c>
+      <c r="H119">
+        <v>2021.959541274673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
         <v>100</v>
       </c>
-      <c r="B119" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119">
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120">
         <v>2291.032708525658</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>1720.019951224327</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>1354.343595862389</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <v>980.3375933170319</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
+      <c r="G120">
+        <v>4048.373891577306</v>
+      </c>
+      <c r="H120">
+        <v>2021.959541274673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
         <v>110</v>
       </c>
-      <c r="B120" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120">
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121">
         <v>2400.974631011486</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>1812.476114153862</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>1431.35782045126</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <v>1040.612736105919</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
+      <c r="G121">
+        <v>4048.373891577306</v>
+      </c>
+      <c r="H121">
+        <v>2021.959541274673</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121">
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122">
         <v>2504.189896166325</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>1895.440679788589</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>1501.442538499832</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>1098.305528759956</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
+      <c r="G122">
+        <v>4048.373891577306</v>
+      </c>
+      <c r="H122">
+        <v>2021.959541274673</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
         <v>80</v>
       </c>
-      <c r="B122" t="s">
-        <v>30</v>
-      </c>
-      <c r="C122">
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123">
         <v>1235.512368261814</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>662.7838175296783</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <v>493.5585297942162</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>375.9748919010162</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
+      <c r="G123">
+        <v>3600.382276820646</v>
+      </c>
+      <c r="H123">
+        <v>1084.124491880685</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
         <v>90</v>
       </c>
-      <c r="B123" t="s">
-        <v>30</v>
-      </c>
-      <c r="C123">
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124">
         <v>1325.299086153507</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>729.691873550415</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>548.583347260952</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>421.343171775341</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
+      <c r="G124">
+        <v>3600.382276820646</v>
+      </c>
+      <c r="H124">
+        <v>1084.124491880685</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
         <v>100</v>
       </c>
-      <c r="B124" t="s">
-        <v>30</v>
-      </c>
-      <c r="C124">
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125">
         <v>1410.358276546001</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>796.7720628380775</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>602.9315044879913</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>465.0983541607857</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
+      <c r="G125">
+        <v>3600.382276820646</v>
+      </c>
+      <c r="H125">
+        <v>1084.124491880685</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
         <v>110</v>
       </c>
-      <c r="B125" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125">
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126">
         <v>1490.03730648756</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>858.0644109845161</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>654.7506504654884</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <v>507.2924704551697</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
+      <c r="G126">
+        <v>3600.382276820646</v>
+      </c>
+      <c r="H126">
+        <v>1084.124491880685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
         <v>120</v>
       </c>
-      <c r="B126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126">
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127">
         <v>1567.997725248337</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>920.6912888288498</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>705.2688213586807</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <v>550.3703375458717</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
+      <c r="G127">
+        <v>3600.382276820646</v>
+      </c>
+      <c r="H127">
+        <v>1084.124491880685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
         <v>80</v>
       </c>
-      <c r="B127" t="s">
-        <v>31</v>
-      </c>
-      <c r="C127">
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
         <v>1541.20716303587</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>998.7477750778198</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>715.1124797463417</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <v>353.2952439785004</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
+      <c r="G128">
+        <v>329.9526928488919</v>
+      </c>
+      <c r="H128">
+        <v>84.30908082156508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
         <v>90</v>
       </c>
-      <c r="B128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C128">
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129">
         <v>1635.944961965084</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>1066.219932019711</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>767.7444180846214</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <v>380.2918564677238</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
+      <c r="G129">
+        <v>329.9526928488919</v>
+      </c>
+      <c r="H129">
+        <v>84.30908082156508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
         <v>100</v>
       </c>
-      <c r="B129" t="s">
-        <v>31</v>
-      </c>
-      <c r="C129">
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130">
         <v>1722.925489604473</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>0</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>818.428347826004</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <v>406.4011368155479</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
+      <c r="G130">
+        <v>329.9526928488919</v>
+      </c>
+      <c r="H130">
+        <v>84.30908082156508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
         <v>110</v>
       </c>
-      <c r="B130" t="s">
-        <v>31</v>
-      </c>
-      <c r="C130">
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131">
         <v>1804.89830738306</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>1192.588658511639</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>866.3668356537819</v>
       </c>
-      <c r="F130">
+      <c r="F131">
         <v>430.9836108088493</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
+      <c r="G131">
+        <v>329.9526928488919</v>
+      </c>
+      <c r="H131">
+        <v>84.30908082156508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
         <v>120</v>
       </c>
-      <c r="B131" t="s">
-        <v>31</v>
-      </c>
-      <c r="C131">
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132">
         <v>1879.942884743214</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>1249.555326282978</v>
       </c>
-      <c r="E131">
+      <c r="E132">
         <v>912.3039106726646</v>
       </c>
-      <c r="F131">
+      <c r="F132">
         <v>454.9136902689934</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
+      <c r="G132">
+        <v>329.9526928488919</v>
+      </c>
+      <c r="H132">
+        <v>84.30908082156508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
         <v>80</v>
       </c>
-      <c r="B132" t="s">
-        <v>32</v>
-      </c>
-      <c r="C132">
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133">
         <v>3263.532503068447</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>2664.022453308105</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <v>2387.206904470921</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>2145.990480780602</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
+      <c r="G133">
+        <v>1963.934248289622</v>
+      </c>
+      <c r="H133">
+        <v>688.3836553959455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
         <v>90</v>
       </c>
-      <c r="B133" t="s">
-        <v>32</v>
-      </c>
-      <c r="C133">
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134">
         <v>3394.444147109985</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>2792.06180948019</v>
       </c>
-      <c r="E133">
+      <c r="E134">
         <v>2515.218668699265</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <v>2263.976084887981</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
+      <c r="G134">
+        <v>1963.934248289622</v>
+      </c>
+      <c r="H134">
+        <v>688.3836553959455</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
         <v>100</v>
       </c>
-      <c r="B134" t="s">
-        <v>32</v>
-      </c>
-      <c r="C134">
+      <c r="B135" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135">
         <v>3515.303691387177</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>2912.645349264145</v>
       </c>
-      <c r="E134">
+      <c r="E135">
         <v>2632.408738017082</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <v>2373.672469735146</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
+      <c r="G135">
+        <v>1963.934248289622</v>
+      </c>
+      <c r="H135">
+        <v>688.3836553959455</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
         <v>110</v>
       </c>
-      <c r="B135" t="s">
-        <v>32</v>
-      </c>
-      <c r="C135">
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
         <v>3629.992044150829</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>3027.131918370724</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <v>2744.638538837433</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>2474.810599625111</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
+      <c r="G136">
+        <v>1963.934248289622</v>
+      </c>
+      <c r="H136">
+        <v>688.3836553959455</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
         <v>120</v>
       </c>
-      <c r="B136" t="s">
-        <v>32</v>
-      </c>
-      <c r="C136">
+      <c r="B137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137">
         <v>3729.295252382755</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>3129.527070939541</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <v>2846.207896113396</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>2570.564146339893</v>
+      </c>
+      <c r="G137">
+        <v>1963.934248289622</v>
+      </c>
+      <c r="H137">
+        <v>688.3836553959455</v>
       </c>
     </row>
   </sheetData>
@@ -3206,13 +4057,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3231,13 +4082,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3414.893241441809</v>
@@ -3251,13 +4108,19 @@
       <c r="F2">
         <v>3393.653740902431</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>10.47719114362456</v>
+      </c>
+      <c r="H2">
+        <v>5.325345665997447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>3532.632278856821</v>
@@ -3271,13 +4134,19 @@
       <c r="F3">
         <v>3510.162125974894</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>10.47719114362456</v>
+      </c>
+      <c r="H3">
+        <v>5.325345665997447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3582.325468801893</v>
@@ -3291,13 +4160,19 @@
       <c r="F4">
         <v>3559.564875368029</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>10.47719114362456</v>
+      </c>
+      <c r="H4">
+        <v>5.325345665997447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3669.591549298726</v>
@@ -3311,13 +4186,19 @@
       <c r="F5">
         <v>3645.182692167349</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>10.47719114362456</v>
+      </c>
+      <c r="H5">
+        <v>5.325345665997447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1670.871977088973</v>
@@ -3331,13 +4212,19 @@
       <c r="F6">
         <v>1048.272381019779</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>104.247842276756</v>
+      </c>
+      <c r="H6">
+        <v>7.612795114235051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1761.260727509856</v>
@@ -3351,13 +4238,19 @@
       <c r="F7">
         <v>1111.018867647275</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>104.247842276756</v>
+      </c>
+      <c r="H7">
+        <v>7.612795114235051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1800.692342394963</v>
@@ -3371,13 +4264,19 @@
       <c r="F8">
         <v>1138.584891855717</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>104.247842276756</v>
+      </c>
+      <c r="H8">
+        <v>7.612795114235051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1871.74608377181</v>
@@ -3391,13 +4290,19 @@
       <c r="F9">
         <v>1188.4467391707</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>104.247842276756</v>
+      </c>
+      <c r="H9">
+        <v>7.612795114235051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1819.288216889836</v>
@@ -3411,13 +4316,19 @@
       <c r="F10">
         <v>1377.991741214879</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>166.2182943119511</v>
+      </c>
+      <c r="H10">
+        <v>15.87544879757131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1895.644070288166</v>
@@ -3431,13 +4342,19 @@
       <c r="F11">
         <v>1441.943249230273</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>166.2182943119511</v>
+      </c>
+      <c r="H11">
+        <v>15.87544879757131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1928.484377256595</v>
@@ -3451,13 +4368,19 @@
       <c r="F12">
         <v>1469.454248000868</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>166.2182943119511</v>
+      </c>
+      <c r="H12">
+        <v>15.87544879757131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1986.820635762997</v>
@@ -3471,13 +4394,19 @@
       <c r="F13">
         <v>1518.445835978724</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>166.2182943119511</v>
+      </c>
+      <c r="H13">
+        <v>15.87544879757131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4362.809336842038</v>
@@ -3491,13 +4420,19 @@
       <c r="F14">
         <v>3642.02713274397</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>314.7158753440682</v>
+      </c>
+      <c r="H14">
+        <v>150.8751039225708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>4503.315661316738</v>
@@ -3511,13 +4446,19 @@
       <c r="F15">
         <v>3774.777850801125</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>314.7158753440682</v>
+      </c>
+      <c r="H15">
+        <v>150.8751039225708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>4563.887292752974</v>
@@ -3531,13 +4472,19 @@
       <c r="F16">
         <v>3831.42375503853</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>314.7158753440682</v>
+      </c>
+      <c r="H16">
+        <v>150.8751039225708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>4666.86044527404</v>
@@ -3551,13 +4498,19 @@
       <c r="F17">
         <v>3930.16152168531</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>314.7158753440682</v>
+      </c>
+      <c r="H17">
+        <v>150.8751039225708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>3625.093153730035</v>
@@ -3571,13 +4524,19 @@
       <c r="F18">
         <v>3238.408215941861</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>109.3222617380418</v>
+      </c>
+      <c r="H18">
+        <v>19.56830498751323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>3751.96873855684</v>
@@ -3591,13 +4550,19 @@
       <c r="F19">
         <v>3365.663910529576</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>109.3222617380418</v>
+      </c>
+      <c r="H19">
+        <v>19.56830498751323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>3805.244167138822</v>
@@ -3611,13 +4576,19 @@
       <c r="F20">
         <v>3420.26213583909</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>109.3222617380418</v>
+      </c>
+      <c r="H20">
+        <v>19.56830498751323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>3899.953067481518</v>
@@ -3631,13 +4602,19 @@
       <c r="F21">
         <v>3516.590742885135</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>109.3222617380418</v>
+      </c>
+      <c r="H21">
+        <v>19.56830498751323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>3341.702407147735</v>
@@ -3651,13 +4628,19 @@
       <c r="F22">
         <v>1924.453116537072</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>243.4989061465645</v>
+      </c>
+      <c r="H22">
+        <v>50.1329794975649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>3474.57366003748</v>
@@ -3671,13 +4654,19 @@
       <c r="F23">
         <v>2015.709560320713</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>243.4989061465645</v>
+      </c>
+      <c r="H23">
+        <v>50.1329794975649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>3531.408624957316</v>
@@ -3691,13 +4680,19 @@
       <c r="F24">
         <v>2055.192435205914</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>243.4989061465645</v>
+      </c>
+      <c r="H24">
+        <v>50.1329794975649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>3630.099095749669</v>
@@ -3711,13 +4706,19 @@
       <c r="F25">
         <v>2125.730976880528</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>243.4989061465645</v>
+      </c>
+      <c r="H25">
+        <v>50.1329794975649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>3567.94772285223</v>
@@ -3731,13 +4732,19 @@
       <c r="F26">
         <v>3117.972491877154</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>1034.564141539709</v>
+      </c>
+      <c r="H26">
+        <v>53.94438336962372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>3671.99948890321</v>
@@ -3751,13 +4758,19 @@
       <c r="F27">
         <v>3231.126395110972</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>1034.564141539709</v>
+      </c>
+      <c r="H27">
+        <v>53.94438336962372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>3717.043870103545</v>
@@ -3771,13 +4784,19 @@
       <c r="F28">
         <v>3279.513384528458</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>1034.564141539709</v>
+      </c>
+      <c r="H28">
+        <v>53.94438336962372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>3796.915473835543</v>
@@ -3791,13 +4810,19 @@
       <c r="F29">
         <v>3363.613411021419</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>1034.564141539709</v>
+      </c>
+      <c r="H29">
+        <v>53.94438336962372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>4205.975187258795</v>
@@ -3811,13 +4836,19 @@
       <c r="F30">
         <v>3907.395959109068</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>170.2939871617535</v>
+      </c>
+      <c r="H30">
+        <v>75.23590913542185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>4334.511897581629</v>
@@ -3831,13 +4862,19 @@
       <c r="F31">
         <v>4035.250016631559</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>170.2939871617535</v>
+      </c>
+      <c r="H31">
+        <v>75.23590913542185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>4392.045705359429</v>
@@ -3851,13 +4888,19 @@
       <c r="F32">
         <v>4087.611926021986</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>170.2939871617535</v>
+      </c>
+      <c r="H32">
+        <v>75.23590913542185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>4491.941054213792</v>
@@ -3871,13 +4914,19 @@
       <c r="F33">
         <v>4185.748459269293</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>170.2939871617535</v>
+      </c>
+      <c r="H33">
+        <v>75.23590913542185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>2734.541246073321</v>
@@ -3891,13 +4940,19 @@
       <c r="F34">
         <v>1136.939163068309</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>1448.673844216852</v>
+      </c>
+      <c r="H34">
+        <v>31.54781728064901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>2842.778426636942</v>
@@ -3911,13 +4966,19 @@
       <c r="F35">
         <v>1193.879560763948</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>1448.673844216852</v>
+      </c>
+      <c r="H35">
+        <v>31.54781728064901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>2888.631276996806</v>
@@ -3931,13 +4992,19 @@
       <c r="F36">
         <v>1218.490471800789</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>1448.673844216852</v>
+      </c>
+      <c r="H36">
+        <v>31.54781728064901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>2969.607111850753</v>
@@ -3951,13 +5018,19 @@
       <c r="F37">
         <v>1262.783158502541</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>1448.673844216852</v>
+      </c>
+      <c r="H37">
+        <v>31.54781728064901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>4415.093016160652</v>
@@ -3971,13 +5044,19 @@
       <c r="F38">
         <v>3031.300226315856</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>1280.994901684452</v>
+      </c>
+      <c r="H38">
+        <v>23.67866962673843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>4519.082494497299</v>
@@ -3991,13 +5070,19 @@
       <c r="F39">
         <v>3152.872134726495</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>1280.994901684452</v>
+      </c>
+      <c r="H39">
+        <v>23.67866962673843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>4563.890919588506</v>
@@ -4011,13 +5096,19 @@
       <c r="F40">
         <v>3204.726440952159</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>1280.994901684452</v>
+      </c>
+      <c r="H40">
+        <v>23.67866962673843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>4637.383398146369</v>
@@ -4031,13 +5122,19 @@
       <c r="F41">
         <v>3294.215624719858</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>1280.994901684452</v>
+      </c>
+      <c r="H41">
+        <v>23.67866962673843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>1757.569051446393</v>
@@ -4051,13 +5148,19 @@
       <c r="F42">
         <v>1180.455061988905</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>1610.018803769291</v>
+      </c>
+      <c r="H42">
+        <v>50.74685550352564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>1838.397252406925</v>
@@ -4071,13 +5174,19 @@
       <c r="F43">
         <v>1244.081568150781</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>1610.018803769291</v>
+      </c>
+      <c r="H43">
+        <v>50.74685550352564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>1873.288552075624</v>
@@ -4091,13 +5200,19 @@
       <c r="F44">
         <v>1271.737192381173</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>1610.018803769291</v>
+      </c>
+      <c r="H44">
+        <v>50.74685550352564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>1935.433314998634</v>
@@ -4111,13 +5226,19 @@
       <c r="F45">
         <v>1321.61872012727</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>1610.018803769291</v>
+      </c>
+      <c r="H45">
+        <v>50.74685550352564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>3648.707686275244</v>
@@ -4131,13 +5252,19 @@
       <c r="F46">
         <v>3170.310471965931</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>85.07876067330244</v>
+      </c>
+      <c r="H46">
+        <v>26.78771769587055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>3776.579695404507</v>
@@ -4151,13 +5278,19 @@
       <c r="F47">
         <v>3302.83357427083</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>85.07876067330244</v>
+      </c>
+      <c r="H47">
+        <v>26.78771769587055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>3828.814987675287</v>
@@ -4171,13 +5304,19 @@
       <c r="F48">
         <v>3359.129919938743</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>85.07876067330244</v>
+      </c>
+      <c r="H48">
+        <v>26.78771769587055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>3925.454939750023</v>
@@ -4191,13 +5330,19 @@
       <c r="F49">
         <v>3458.466985698789</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>85.07876067330244</v>
+      </c>
+      <c r="H49">
+        <v>26.78771769587055</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>3648.707686275244</v>
@@ -4211,13 +5356,19 @@
       <c r="F50">
         <v>3356.268876391463</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>20.48936174492465</v>
+      </c>
+      <c r="H50">
+        <v>4.856414191817549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>3776.579695404507</v>
@@ -4231,13 +5382,19 @@
       <c r="F51">
         <v>3491.43846299313</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>20.48936174492465</v>
+      </c>
+      <c r="H51">
+        <v>4.856414191817549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>3828.814987675287</v>
@@ -4251,13 +5408,19 @@
       <c r="F52">
         <v>3548.878517157398</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>20.48936174492465</v>
+      </c>
+      <c r="H52">
+        <v>4.856414191817549</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>3925.454939750023</v>
@@ -4271,13 +5434,19 @@
       <c r="F53">
         <v>3649.30771877896</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>20.48936174492465</v>
+      </c>
+      <c r="H53">
+        <v>4.856414191817549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>4335.09048619587</v>
@@ -4291,13 +5460,19 @@
       <c r="F54">
         <v>4168.334896015003</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>2800.471636214475</v>
+      </c>
+      <c r="H54">
+        <v>15.98474571656213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>4474.823647866026</v>
@@ -4311,13 +5486,19 @@
       <c r="F55">
         <v>4299.289235630073</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>2800.471636214475</v>
+      </c>
+      <c r="H55">
+        <v>15.98474571656213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>4533.564916032366</v>
@@ -4331,13 +5512,19 @@
       <c r="F56">
         <v>4355.946879304945</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>2800.471636214475</v>
+      </c>
+      <c r="H56">
+        <v>15.98474571656213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>4633.606037246063</v>
@@ -4351,13 +5538,19 @@
       <c r="F57">
         <v>4449.841148620471</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>2800.471636214475</v>
+      </c>
+      <c r="H57">
+        <v>15.98474571656213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>3701.378793229349</v>
@@ -4371,13 +5564,19 @@
       <c r="F58">
         <v>3381.020790426061</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>89.92609082441456</v>
+      </c>
+      <c r="H58">
+        <v>19.68567290704468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>3835.900390129536</v>
@@ -4391,13 +5590,19 @@
       <c r="F59">
         <v>3510.00289837271</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>89.92609082441456</v>
+      </c>
+      <c r="H59">
+        <v>19.68567290704468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>3893.18142687995</v>
@@ -4411,13 +5616,19 @@
       <c r="F60">
         <v>3565.135307770222</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>89.92609082441456</v>
+      </c>
+      <c r="H60">
+        <v>19.68567290704468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>3994.065821873955</v>
@@ -4431,13 +5642,19 @@
       <c r="F61">
         <v>3662.312051481567</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>89.92609082441456</v>
+      </c>
+      <c r="H61">
+        <v>19.68567290704468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>2777.376763748005</v>
@@ -4451,13 +5668,19 @@
       <c r="F62">
         <v>2724.513830953278</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>946.4268319466447</v>
+      </c>
+      <c r="H62">
+        <v>2.774933230353361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>2889.373362679034</v>
@@ -4471,13 +5694,19 @@
       <c r="F63">
         <v>2832.764858206734</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>946.4268319466447</v>
+      </c>
+      <c r="H63">
+        <v>2.774933230353361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>2937.29472562857</v>
@@ -4491,13 +5720,19 @@
       <c r="F64">
         <v>2877.968526558951</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>946.4268319466447</v>
+      </c>
+      <c r="H64">
+        <v>2.774933230353361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>3021.516842307523</v>
@@ -4511,13 +5746,19 @@
       <c r="F65">
         <v>2959.571779896505</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>946.4268319466447</v>
+      </c>
+      <c r="H65">
+        <v>2.774933230353361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>1850.794092060067</v>
@@ -4531,13 +5772,19 @@
       <c r="F66">
         <v>1561.139701770619</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>88.80691041979399</v>
+      </c>
+      <c r="H66">
+        <v>9.420334907562967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C67">
         <v>1947.245296792127</v>
@@ -4551,13 +5798,19 @@
       <c r="F67">
         <v>1649.881677495316</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>88.80691041979399</v>
+      </c>
+      <c r="H67">
+        <v>9.420334907562967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>1989.129211247899</v>
@@ -4571,13 +5824,19 @@
       <c r="F68">
         <v>1688.372960221022</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>88.80691041979399</v>
+      </c>
+      <c r="H68">
+        <v>9.420334907562967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>2064.701796034351</v>
@@ -4591,13 +5850,19 @@
       <c r="F69">
         <v>1757.645774805918</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>88.80691041979399</v>
+      </c>
+      <c r="H69">
+        <v>9.420334907562967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>902.9776683989912</v>
@@ -4611,13 +5876,19 @@
       <c r="F70">
         <v>902.9776683989912</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0.6444320067603444</v>
+      </c>
+      <c r="H70">
+        <v>0.482761303202967</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>950.8296293001622</v>
@@ -4631,13 +5902,19 @@
       <c r="F71">
         <v>950.8296293001622</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>0.6444320067603444</v>
+      </c>
+      <c r="H71">
+        <v>0.482761303202967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>971.7057672319934</v>
@@ -4651,13 +5928,19 @@
       <c r="F72">
         <v>971.7057672319934</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>0.6444320067603444</v>
+      </c>
+      <c r="H72">
+        <v>0.482761303202967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>1009.349957607687</v>
@@ -4671,13 +5954,19 @@
       <c r="F73">
         <v>1009.349957607687</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>0.6444320067603444</v>
+      </c>
+      <c r="H73">
+        <v>0.482761303202967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>2902.226679587737</v>
@@ -4691,13 +5980,19 @@
       <c r="F74">
         <v>1503.673371118493</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>1685.055814656477</v>
+      </c>
+      <c r="H74">
+        <v>22.68774574834127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>3004.297046642751</v>
@@ -4711,13 +6006,19 @@
       <c r="F75">
         <v>1582.986180850305</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>1685.055814656477</v>
+      </c>
+      <c r="H75">
+        <v>22.68774574834127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>3047.702262162231</v>
@@ -4731,13 +6032,19 @@
       <c r="F76">
         <v>1619.89783283975</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>1685.055814656477</v>
+      </c>
+      <c r="H76">
+        <v>22.68774574834127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>3122.031407553703</v>
@@ -4751,13 +6058,19 @@
       <c r="F77">
         <v>1668.775065403432</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>1685.055814656477</v>
+      </c>
+      <c r="H77">
+        <v>22.68774574834127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C78">
         <v>3179.801477998495</v>
@@ -4771,13 +6084,19 @@
       <c r="F78">
         <v>1596.856395817362</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>467.361847454183</v>
+      </c>
+      <c r="H78">
+        <v>80.26782715488299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>3308.987553254701</v>
@@ -4791,13 +6110,19 @@
       <c r="F79">
         <v>1676.531850663014</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>467.361847454183</v>
+      </c>
+      <c r="H79">
+        <v>80.26782715488299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>3363.165286182426</v>
@@ -4811,13 +6136,19 @@
       <c r="F80">
         <v>1710.866363768466</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>467.361847454183</v>
+      </c>
+      <c r="H80">
+        <v>80.26782715488299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>3460.336588341743</v>
@@ -4831,13 +6162,19 @@
       <c r="F81">
         <v>1772.603532041423</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>467.361847454183</v>
+      </c>
+      <c r="H81">
+        <v>80.26782715488299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>4172.400136458687</v>
@@ -4851,13 +6188,19 @@
       <c r="F82">
         <v>3366.200209696777</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>2198.84633093708</v>
+      </c>
+      <c r="H82">
+        <v>137.3419456750291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>4284.974457044154</v>
@@ -4871,13 +6214,19 @@
       <c r="F83">
         <v>3475.440024910495</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>2198.84633093708</v>
+      </c>
+      <c r="H83">
+        <v>137.3419456750291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>4331.297058562748</v>
@@ -4891,13 +6240,19 @@
       <c r="F84">
         <v>3527.141216627322</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>2198.84633093708</v>
+      </c>
+      <c r="H84">
+        <v>137.3419456750291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>4417.843115345575</v>
@@ -4910,6 +6265,12 @@
       </c>
       <c r="F85">
         <v>3606.575570476241</v>
+      </c>
+      <c r="G85">
+        <v>2198.84633093708</v>
+      </c>
+      <c r="H85">
+        <v>137.3419456750291</v>
       </c>
     </row>
   </sheetData>
@@ -4919,13 +6280,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4941,10 +6302,16 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1344.342397825011</v>
@@ -4958,10 +6325,16 @@
       <c r="E2">
         <v>1321.403810779572</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>5367.008255557525</v>
+      </c>
+      <c r="G2">
+        <v>4.294400017398353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1269.278144080507</v>
@@ -4975,10 +6348,16 @@
       <c r="E3">
         <v>1238.135324581388</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1965.303888140062</v>
+      </c>
+      <c r="G3">
+        <v>0.1854239881057531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1545.797407931471</v>
@@ -4992,10 +6371,16 @@
       <c r="E4">
         <v>1522.852926245452</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>7141.646947000857</v>
+      </c>
+      <c r="G4">
+        <v>0.1294493782551386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1336.52181246464</v>
@@ -5009,10 +6394,16 @@
       <c r="E5">
         <v>1303.166042171449</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>5045.457152112206</v>
+      </c>
+      <c r="G5">
+        <v>3.162219048858693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1128.27333522244</v>
@@ -5026,10 +6417,16 @@
       <c r="E6">
         <v>1093.255062415009</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>2761.54093473769</v>
+      </c>
+      <c r="G6">
+        <v>1.99033980706412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1074.041447325596</v>
@@ -5043,10 +6440,16 @@
       <c r="E7">
         <v>1040.224521607671</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>2911.357867921608</v>
+      </c>
+      <c r="G7">
+        <v>2.231547236967486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>929.6149505570716</v>
@@ -5060,10 +6463,16 @@
       <c r="E8">
         <v>764.5231294233419</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>21565.30951949813</v>
+      </c>
+      <c r="G8">
+        <v>4.67680031824239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1569.647419110226</v>
@@ -5077,10 +6486,16 @@
       <c r="E9">
         <v>1436.878176752006</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>35169.21398984149</v>
+      </c>
+      <c r="G9">
+        <v>10.66463408809623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1337.535041433643</v>
@@ -5094,10 +6509,16 @@
       <c r="E10">
         <v>1267.555309464096</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>22901.9146419605</v>
+      </c>
+      <c r="G10">
+        <v>12.3232388608009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1771.255637522276</v>
@@ -5111,10 +6532,16 @@
       <c r="E11">
         <v>1680.187946981199</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>8485.035531771116</v>
+      </c>
+      <c r="G11">
+        <v>0.0648246718743985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1391.948908688548</v>
@@ -5128,10 +6555,16 @@
       <c r="E12">
         <v>1346.396995905734</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>5955.487131250034</v>
+      </c>
+      <c r="G12">
+        <v>0.003500132514649394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1074.56037691953</v>
@@ -5145,10 +6578,16 @@
       <c r="E13">
         <v>989.8553212772622</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>4504.017009793267</v>
+      </c>
+      <c r="G13">
+        <v>0.794927537527834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1699.916808646086</v>
@@ -5162,10 +6601,16 @@
       <c r="E14">
         <v>1687.967531990103</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>19248.42254723027</v>
+      </c>
+      <c r="G14">
+        <v>0.3197628679595286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>1108.676039477984</v>
@@ -5179,10 +6624,16 @@
       <c r="E15">
         <v>1054.518243475509</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>4141.356163502305</v>
+      </c>
+      <c r="G15">
+        <v>3.13957086408403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1141.441108265617</v>
@@ -5196,175 +6647,264 @@
       <c r="E16">
         <v>1075.75768557573</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>4161.155233548286</v>
+      </c>
+      <c r="G16">
+        <v>2.384743945579068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
+        <v>1243.766177143018</v>
+      </c>
+      <c r="C17">
+        <v>1243.766177143018</v>
+      </c>
+      <c r="D17">
+        <v>1243.766177143018</v>
+      </c>
+      <c r="E17">
+        <v>1243.766177143018</v>
+      </c>
+      <c r="F17">
+        <v>2410.645094098957</v>
+      </c>
+      <c r="G17">
+        <v>0.4901685240756419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>800.1495496704625</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>775.0721907513474</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>737.3146958575363</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>695.6153323833042</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
+      <c r="F18">
+        <v>20811.02883261281</v>
+      </c>
+      <c r="G18">
+        <v>52.81271485709114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>1271.085173010904</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1239.886229165899</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1224.711769853542</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1180.880259643734</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
+      <c r="F19">
+        <v>19993.63838159262</v>
+      </c>
+      <c r="G19">
+        <v>5.123518668514133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>1772.908122710768</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1772.908122710768</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1772.908122710768</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1772.908122710768</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
+      <c r="F20">
+        <v>5880.170262600203</v>
+      </c>
+      <c r="G20">
+        <v>0.00228147622386574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>1491.597543629729</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1491.227363226823</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1479.353168694931</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>1424.559888142225</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
+      <c r="F21">
+        <v>15253.70507401553</v>
+      </c>
+      <c r="G21">
+        <v>1.390451339765502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
         <v>1297.896930761573</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1295.687960327162</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1295.687960327162</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1295.141069502121</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
+      <c r="F22">
+        <v>3142.306162721203</v>
+      </c>
+      <c r="G22">
+        <v>0.2685584581404172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>1391.622585764305</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1391.622585764305</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>1389.868401285402</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>1380.561294203357</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
+      <c r="F23">
+        <v>1278.704165737528</v>
+      </c>
+      <c r="G23">
+        <v>0.1032011644241667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
         <v>2050.58263373399</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2050.58263373399</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>2050.58263373399</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>2050.58263373399</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
+      <c r="F24">
+        <v>32386.99113261844</v>
+      </c>
+      <c r="G24">
+        <v>0.06375248624581002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
         <v>909.4226664100015</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>866.7373673690647</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>841.8780025690729</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>815.7148595656851</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
+      <c r="F25">
+        <v>28803.05821456517</v>
+      </c>
+      <c r="G25">
+        <v>42.46625598478509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
         <v>1454.443934210046</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1396.195655624956</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>1384.403167140272</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1346.157242560637</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
+      <c r="F26">
+        <v>2639.621542791136</v>
+      </c>
+      <c r="G26">
+        <v>2.42211577208968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
         <v>1227.695325404156</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>1164.481464956607</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>1131.500707959445</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>1101.168220626289</v>
+      </c>
+      <c r="F27">
+        <v>15711.47398631698</v>
+      </c>
+      <c r="G27">
+        <v>8.6600949668395</v>
       </c>
     </row>
   </sheetData>
@@ -5374,13 +6914,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5396,10 +6936,16 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1366.315880122715</v>
@@ -5413,10 +6959,16 @@
       <c r="E2">
         <v>1319.607278596604</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>13417.5206388938</v>
+      </c>
+      <c r="G2">
+        <v>219.1624403544025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1247.71829110978</v>
@@ -5430,10 +6982,16 @@
       <c r="E3">
         <v>1243.12528925153</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>4913.259720350156</v>
+      </c>
+      <c r="G3">
+        <v>62.26608627684529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1601.467169956595</v>
@@ -5447,10 +7005,16 @@
       <c r="E4">
         <v>1534.610176341199</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>17854.11736750215</v>
+      </c>
+      <c r="G4">
+        <v>159.3081094075368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1521.42819416508</v>
@@ -5464,10 +7028,16 @@
       <c r="E5">
         <v>1445.804824735949</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>9132.576676891435</v>
+      </c>
+      <c r="G5">
+        <v>133.2661603591283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1316.121329039582</v>
@@ -5481,10 +7051,16 @@
       <c r="E6">
         <v>1284.565393603855</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>12613.6428802805</v>
+      </c>
+      <c r="G6">
+        <v>218.1720029797441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1124.963047788027</v>
@@ -5498,10 +7074,16 @@
       <c r="E7">
         <v>1097.26107053489</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>6903.852336844233</v>
+      </c>
+      <c r="G7">
+        <v>39.6847956913584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1081.580277107638</v>
@@ -5515,10 +7097,16 @@
       <c r="E8">
         <v>1040.224521607671</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>7278.394669804024</v>
+      </c>
+      <c r="G8">
+        <v>123.9819356925834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>965.9800925831287</v>
@@ -5532,10 +7120,16 @@
       <c r="E9">
         <v>773.3821437764703</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>53913.27379874545</v>
+      </c>
+      <c r="G9">
+        <v>658.5556237421043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1575.911460449923</v>
@@ -5549,10 +7143,16 @@
       <c r="E10">
         <v>1403.254814690608</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>87923.03497460375</v>
+      </c>
+      <c r="G10">
+        <v>862.9011356534943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1323.494875327666</v>
@@ -5566,10 +7166,16 @@
       <c r="E11">
         <v>1250.417984314103</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>57254.78660490122</v>
+      </c>
+      <c r="G11">
+        <v>437.1550672551912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1774.25599085803</v>
@@ -5583,10 +7189,16 @@
       <c r="E12">
         <v>1643.435954558174</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>21212.58882942775</v>
+      </c>
+      <c r="G12">
+        <v>1298.008757188273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1377.027243810044</v>
@@ -5600,10 +7212,16 @@
       <c r="E13">
         <v>1349.720155209707</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>14888.71782812507</v>
+      </c>
+      <c r="G13">
+        <v>64.43965968292173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1141.902896521208</v>
@@ -5617,10 +7235,16 @@
       <c r="E14">
         <v>1029.059173846472</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>11260.04252448319</v>
+      </c>
+      <c r="G14">
+        <v>163.7852810554182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1701.895123982422</v>
@@ -5634,10 +7258,16 @@
       <c r="E15">
         <v>1593.259330828501</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>48121.05636807567</v>
+      </c>
+      <c r="G15">
+        <v>720.3829595821247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1108.676039477984</v>
@@ -5651,10 +7281,16 @@
       <c r="E16">
         <v>1052.497584051068</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>10353.39040875576</v>
+      </c>
+      <c r="G16">
+        <v>205.4810657799349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1141.441108265617</v>
@@ -5668,10 +7304,16 @@
       <c r="E17">
         <v>1096.614013672938</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>10402.88808387071</v>
+      </c>
+      <c r="G17">
+        <v>130.8295228472815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1258.552577216493</v>
@@ -5685,175 +7327,264 @@
       <c r="E18">
         <v>1243.12528925153</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>413.1615050114033</v>
+      </c>
+      <c r="G18">
+        <v>3.1685862848866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
+        <v>1230.656528834195</v>
+      </c>
+      <c r="C19">
+        <v>1219.345004753251</v>
+      </c>
+      <c r="D19">
+        <v>1215.58826941968</v>
+      </c>
+      <c r="E19">
+        <v>1203.318791909892</v>
+      </c>
+      <c r="F19">
+        <v>6026.612735247387</v>
+      </c>
+      <c r="G19">
+        <v>6.08688287855201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
         <v>928.8511360341778</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>813.2356794450787</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>736.1661932573647</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>655.7321918891065</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
+      <c r="F20">
+        <v>52027.57208153213</v>
+      </c>
+      <c r="G20">
+        <v>2313.529498382668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
         <v>1273.152363912779</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1248.929234338325</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1227.586790957984</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>1183.930689575113</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
+      <c r="F21">
+        <v>49984.09595398161</v>
+      </c>
+      <c r="G21">
+        <v>325.3148889757412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
         <v>1818.581508355931</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1713.801094327607</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1663.952030782774</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1653.6661088541</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
+      <c r="F22">
+        <v>14700.4256565005</v>
+      </c>
+      <c r="G22">
+        <v>1163.984425144615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>1444.037472513454</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>1417.965512498977</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>1388.728657984853</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>1368.602387990994</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
+      <c r="F23">
+        <v>38134.26268503892</v>
+      </c>
+      <c r="G23">
+        <v>126.6969042915651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
         <v>1325.542640048631</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1304.553611041183</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>1295.687960327162</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>1291.849458097553</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
+      <c r="F24">
+        <v>7855.765406802994</v>
+      </c>
+      <c r="G24">
+        <v>55.09719871332919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
         <v>1380.561294203357</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1380.175089558726</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>1371.175406295972</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>1355.881190350131</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
+      <c r="F25">
+        <v>3196.76041434382</v>
+      </c>
+      <c r="G25">
+        <v>69.52815138479114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>1859.949632086058</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1793.901102114377</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>1761.415185498268</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1722.760394453647</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
+      <c r="F26">
+        <v>80967.47783154638</v>
+      </c>
+      <c r="G26">
+        <v>4225.197788097968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
         <v>1041.262890381925</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>891.5881328343361</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>848.1697540724834</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>807.1292256336436</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
+      <c r="F27">
+        <v>72007.64553641285</v>
+      </c>
+      <c r="G27">
+        <v>1691.841202159609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
         <v>1483.457073051132</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1384.403167140272</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>1379.782715489062</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1346.157242560637</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
+      <c r="F28">
+        <v>6599.053856977839</v>
+      </c>
+      <c r="G28">
+        <v>122.0885456189888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
         <v>1153.786922688052</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1031.139875003312</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>989.2165927431677</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>929.3123410906293</v>
+      </c>
+      <c r="F29">
+        <v>39278.68496579246</v>
+      </c>
+      <c r="G29">
+        <v>733.1676626842316</v>
       </c>
     </row>
   </sheetData>
